--- a/capiq_data/in_process_data/IQ126849.xlsx
+++ b/capiq_data/in_process_data/IQ126849.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E05CAD59-631D-43AB-85BD-119A83C16A39}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F26636-3038-4FA0-99ED-2E69C7B53E00}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"6f24366e-d136-42ba-8507-29e3929f5496"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"6071113e-2454-493d-8a4e-d83cba494c24"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$79</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$79</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$79</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$79</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$79</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$79</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$79</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$79</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$79</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$79</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$79</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$79</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$79</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$79</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$79</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$79</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$79</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$79</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$79</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$79</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$79</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$79</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$79</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$79</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$79</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$79</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$79</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,117 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ11998</t>
+  </si>
+  <si>
+    <t>FQ21998</t>
+  </si>
+  <si>
+    <t>FQ31998</t>
+  </si>
+  <si>
+    <t>FQ41998</t>
+  </si>
+  <si>
+    <t>FQ11999</t>
+  </si>
+  <si>
+    <t>FQ21999</t>
+  </si>
+  <si>
+    <t>FQ31999</t>
+  </si>
+  <si>
+    <t>FQ41999</t>
+  </si>
+  <si>
+    <t>FQ12000</t>
+  </si>
+  <si>
+    <t>FQ22000</t>
+  </si>
+  <si>
+    <t>FQ32000</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
   </si>
   <si>
     <t>FQ22010</t>
@@ -639,7 +750,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,37 +844,37 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40359</v>
+        <v>35885</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>44.256</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>1049.2605000000001</v>
+        <v>159.60400000000001</v>
       </c>
       <c r="E2">
-        <v>584.77200000000005</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>729.54399999999998</v>
+        <v>152.86949999999999</v>
       </c>
       <c r="G2">
-        <v>4852.47</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>15032.040999999999</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1346.153</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>5707.8509999999997</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>202.72900000000001</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -772,81 +883,81 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>4400.4690000000001</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>11179.248</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>7615.1809999999996</v>
+        <v>144.49</v>
       </c>
       <c r="Q2">
-        <v>2.7995000000000001</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>40359</v>
+        <v>35885</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>3852.7930000000001</v>
+        <v>16081.174999999999</v>
       </c>
       <c r="U2">
-        <v>864.46500000000003</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>23.274999999999999</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>-30.734000000000002</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>-150.02199999999999</v>
+        <v>0</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>202.86</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>44.256</v>
+        <v>81.218999999999994</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40451</v>
+        <v>35976</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>13.238</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1054.2275</v>
+        <v>159.60400000000001</v>
       </c>
       <c r="E3">
-        <v>589.66700000000003</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>705.06200000000001</v>
+        <v>152.86949999999999</v>
       </c>
       <c r="G3">
-        <v>4509.4309999999996</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>14173.087</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>394.524</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>5698.9009999999998</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>230.69</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -855,81 +966,81 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>3523.89</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>10230.831</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>7186.1850000000004</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>145.803</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>40451</v>
+        <v>35976</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>3942.2559999999999</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>1071.0329999999999</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>294.19799999999998</v>
+        <v>0</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>-193.47450000000001</v>
+        <v>0</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>90.077500000000001</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>13.238</v>
+        <v>81.218999999999994</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40543</v>
+        <v>36068</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>13.238</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1054.2275</v>
+        <v>69.4345</v>
       </c>
       <c r="E4">
-        <v>589.66700000000003</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>705.06200000000001</v>
+        <v>60.670999999999999</v>
       </c>
       <c r="G4">
-        <v>4509.4309999999996</v>
+        <v>5051.6530000000002</v>
       </c>
       <c r="H4">
-        <v>14173.087</v>
+        <v>16888.281999999999</v>
       </c>
       <c r="I4">
-        <v>394.524</v>
+        <v>8.1159999999999997</v>
       </c>
       <c r="J4">
-        <v>5698.9009999999998</v>
+        <v>41.113999999999997</v>
       </c>
       <c r="K4">
-        <v>230.69</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -938,81 +1049,81 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>3523.89</v>
+        <v>32.207999999999998</v>
       </c>
       <c r="O4">
-        <v>10230.831</v>
+        <v>225.607</v>
       </c>
       <c r="P4">
-        <v>7186.1850000000004</v>
+        <v>41.113999999999997</v>
       </c>
       <c r="Q4">
-        <v>145.803</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>40543</v>
+        <v>36068</v>
       </c>
       <c r="S4">
-        <v>25734</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>3942.2559999999999</v>
+        <v>16662.674999999999</v>
       </c>
       <c r="U4">
-        <v>1071.0329999999999</v>
+        <v>1566.114</v>
       </c>
       <c r="V4">
-        <v>294.19799999999998</v>
+        <v>0</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>-193.47450000000001</v>
+        <v>0</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>90.077500000000001</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>13.238</v>
+        <v>336.49</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40633</v>
+        <v>36160</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>-53.165999999999997</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>949.50850000000003</v>
+        <v>69.4345</v>
       </c>
       <c r="E5">
-        <v>620.12800000000004</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>622.18299999999999</v>
+        <v>60.670999999999999</v>
       </c>
       <c r="G5">
-        <v>4677.152</v>
+        <v>5051.6530000000002</v>
       </c>
       <c r="H5">
-        <v>14453.81</v>
+        <v>16888.281999999999</v>
       </c>
       <c r="I5">
-        <v>1241.0219999999999</v>
+        <v>8.1159999999999997</v>
       </c>
       <c r="J5">
-        <v>5679.4139999999998</v>
+        <v>41.113999999999997</v>
       </c>
       <c r="K5">
-        <v>174.114</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1021,81 +1132,81 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>3819.1489999999999</v>
+        <v>32.207999999999998</v>
       </c>
       <c r="O5">
-        <v>10492.99</v>
+        <v>225.607</v>
       </c>
       <c r="P5">
-        <v>7144.8620000000001</v>
+        <v>41.113999999999997</v>
       </c>
       <c r="Q5">
-        <v>-158.1995</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>40633</v>
+        <v>36160</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>3960.82</v>
+        <v>16662.674999999999</v>
       </c>
       <c r="U5">
-        <v>747.548</v>
+        <v>1566.114</v>
       </c>
       <c r="V5">
-        <v>45.158999999999999</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>-33.683999999999997</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>-158.68199999999999</v>
+        <v>0</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>2.8115000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>-53.165999999999997</v>
+        <v>336.49</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40724</v>
+        <v>36250</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>-53.165999999999997</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>949.50850000000003</v>
+        <v>151.0575</v>
       </c>
       <c r="E6">
-        <v>620.12800000000004</v>
+        <v>254.73099999999999</v>
       </c>
       <c r="F6">
-        <v>622.18299999999999</v>
+        <v>142.54650000000001</v>
       </c>
       <c r="G6">
-        <v>4677.152</v>
+        <v>9239.6479999999992</v>
       </c>
       <c r="H6">
-        <v>14453.81</v>
+        <v>20739.62</v>
       </c>
       <c r="I6">
-        <v>1241.0219999999999</v>
+        <v>10.117000000000001</v>
       </c>
       <c r="J6">
-        <v>5679.4139999999998</v>
+        <v>50.796999999999997</v>
       </c>
       <c r="K6">
-        <v>174.114</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1104,81 +1215,81 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>3819.1489999999999</v>
+        <v>170.13499999999999</v>
       </c>
       <c r="O6">
-        <v>10492.99</v>
+        <v>345.36900000000003</v>
       </c>
       <c r="P6">
-        <v>7144.8620000000001</v>
+        <v>50.796999999999997</v>
       </c>
       <c r="Q6">
-        <v>-158.1995</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>40724</v>
+        <v>36250</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>3960.82</v>
+        <v>20394.251</v>
       </c>
       <c r="U6">
-        <v>747.548</v>
+        <v>4907.7539999999999</v>
       </c>
       <c r="V6">
-        <v>45.158999999999999</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>-33.683999999999997</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>-158.68199999999999</v>
+        <v>0</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>2.8115000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>-53.165999999999997</v>
+        <v>998.1925</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40816</v>
+        <v>36341</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>-2.2075</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>1151.3575000000001</v>
+        <v>151.0575</v>
       </c>
       <c r="E7">
-        <v>639.88400000000001</v>
+        <v>254.73099999999999</v>
       </c>
       <c r="F7">
-        <v>729.75850000000003</v>
+        <v>142.54650000000001</v>
       </c>
       <c r="G7">
-        <v>3839.4830000000002</v>
+        <v>9239.6479999999992</v>
       </c>
       <c r="H7">
-        <v>14542.52</v>
+        <v>20739.62</v>
       </c>
       <c r="I7">
-        <v>380.96800000000002</v>
+        <v>10.117000000000001</v>
       </c>
       <c r="J7">
-        <v>5771.91</v>
+        <v>50.796999999999997</v>
       </c>
       <c r="K7">
-        <v>59.914999999999999</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1187,81 +1298,81 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>3453.76</v>
+        <v>170.13499999999999</v>
       </c>
       <c r="O7">
-        <v>10681.51</v>
+        <v>345.36900000000003</v>
       </c>
       <c r="P7">
-        <v>6990.4470000000001</v>
+        <v>50.796999999999997</v>
       </c>
       <c r="Q7">
-        <v>-119.048</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>40816</v>
+        <v>36341</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>3861.01</v>
+        <v>20394.251</v>
       </c>
       <c r="U7">
-        <v>511.98099999999999</v>
+        <v>4907.7539999999999</v>
       </c>
       <c r="V7">
-        <v>448.88099999999997</v>
+        <v>0</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>-235.9085</v>
+        <v>0</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>-277.10399999999998</v>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <v>-2.2075</v>
+        <v>998.1925</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>40908</v>
+        <v>36433</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>-2.2075</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>1151.3575000000001</v>
+        <v>113.87649999999999</v>
       </c>
       <c r="E8">
-        <v>639.88400000000001</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>729.75850000000003</v>
+        <v>100.2805</v>
       </c>
       <c r="G8">
-        <v>3839.4830000000002</v>
+        <v>8815.4449999999997</v>
       </c>
       <c r="H8">
-        <v>14542.52</v>
+        <v>21237.242999999999</v>
       </c>
       <c r="I8">
-        <v>380.96800000000002</v>
+        <v>18.055</v>
       </c>
       <c r="J8">
-        <v>5771.91</v>
+        <v>50.33</v>
       </c>
       <c r="K8">
-        <v>59.914999999999999</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1270,81 +1381,81 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>3453.76</v>
+        <v>413.36700000000002</v>
       </c>
       <c r="O8">
-        <v>10681.51</v>
+        <v>619.32500000000005</v>
       </c>
       <c r="P8">
-        <v>6990.4470000000001</v>
+        <v>50.33</v>
       </c>
       <c r="Q8">
-        <v>-119.048</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>40908</v>
+        <v>36433</v>
       </c>
       <c r="S8">
-        <v>38149</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>3861.01</v>
+        <v>20617.918000000001</v>
       </c>
       <c r="U8">
-        <v>511.98099999999999</v>
+        <v>774.36599999999999</v>
       </c>
       <c r="V8">
-        <v>448.88099999999997</v>
+        <v>0</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
       <c r="X8">
-        <v>-235.9085</v>
+        <v>0</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>-277.10399999999998</v>
+        <v>0</v>
       </c>
       <c r="AA8">
-        <v>-2.2075</v>
+        <v>131.05600000000001</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>40999</v>
+        <v>36525</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>-63.295999999999999</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>1054.8040000000001</v>
+        <v>113.87649999999999</v>
       </c>
       <c r="E9">
-        <v>679.55799999999999</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>674.81799999999998</v>
+        <v>100.2805</v>
       </c>
       <c r="G9">
-        <v>4540.308</v>
+        <v>8815.4449999999997</v>
       </c>
       <c r="H9">
-        <v>15087.7</v>
+        <v>21237.242999999999</v>
       </c>
       <c r="I9">
-        <v>1145.4670000000001</v>
+        <v>18.055</v>
       </c>
       <c r="J9">
-        <v>5830.7049999999999</v>
+        <v>50.33</v>
       </c>
       <c r="K9">
-        <v>212.93899999999999</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1353,81 +1464,81 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>4331.0640000000003</v>
+        <v>413.36700000000002</v>
       </c>
       <c r="O9">
-        <v>11429.645</v>
+        <v>619.32500000000005</v>
       </c>
       <c r="P9">
-        <v>7796.0450000000001</v>
+        <v>50.33</v>
       </c>
       <c r="Q9">
-        <v>83.947999999999993</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>40999</v>
+        <v>36525</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>3658.0549999999998</v>
+        <v>20617.918000000001</v>
       </c>
       <c r="U9">
-        <v>299.89800000000002</v>
+        <v>774.36599999999999</v>
       </c>
       <c r="V9">
-        <v>-30.363</v>
+        <v>0</v>
       </c>
       <c r="W9">
-        <v>-36.603499999999997</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>107.8995</v>
+        <v>0</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>-31.837</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>-63.295999999999999</v>
+        <v>131.05600000000001</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41090</v>
+        <v>36616</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>-63.295999999999999</v>
+        <v>532.71950000000004</v>
       </c>
       <c r="D10">
-        <v>1054.8040000000001</v>
+        <v>272.88350000000003</v>
       </c>
       <c r="E10">
-        <v>679.55799999999999</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>674.81799999999998</v>
+        <v>258.39949999999999</v>
       </c>
       <c r="G10">
-        <v>4540.308</v>
+        <v>5222.1540000000005</v>
       </c>
       <c r="H10">
-        <v>15087.7</v>
+        <v>22548.001</v>
       </c>
       <c r="I10">
-        <v>1145.4670000000001</v>
+        <v>9.42</v>
       </c>
       <c r="J10">
-        <v>5830.7049999999999</v>
+        <v>16.035</v>
       </c>
       <c r="K10">
-        <v>212.93899999999999</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1436,81 +1547,81 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>4331.0640000000003</v>
+        <v>285.77</v>
       </c>
       <c r="O10">
-        <v>11429.645</v>
+        <v>410.25</v>
       </c>
       <c r="P10">
-        <v>7796.0450000000001</v>
+        <v>16.035</v>
       </c>
       <c r="Q10">
-        <v>83.947999999999993</v>
+        <v>-1722.8865000000001</v>
       </c>
       <c r="R10">
-        <v>41090</v>
+        <v>36616</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10">
-        <v>3658.0549999999998</v>
+        <v>22137.751</v>
       </c>
       <c r="U10">
-        <v>299.89800000000002</v>
+        <v>1235.607</v>
       </c>
       <c r="V10">
-        <v>-30.363</v>
+        <v>461.851</v>
       </c>
       <c r="W10">
-        <v>-36.603499999999997</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>107.8995</v>
+        <v>-73.359499999999997</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>-31.837</v>
+        <v>219.67400000000001</v>
       </c>
       <c r="AA10">
-        <v>-63.295999999999999</v>
+        <v>532.71950000000004</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41182</v>
+        <v>36707</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>-35.975499999999997</v>
+        <v>532.71950000000004</v>
       </c>
       <c r="D11">
-        <v>1141.4380000000001</v>
+        <v>272.88350000000003</v>
       </c>
       <c r="E11">
-        <v>616.298</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>737.09050000000002</v>
+        <v>258.39949999999999</v>
       </c>
       <c r="G11">
-        <v>3756.1640000000002</v>
+        <v>5222.1540000000005</v>
       </c>
       <c r="H11">
-        <v>13505.851000000001</v>
+        <v>22548.001</v>
       </c>
       <c r="I11">
-        <v>361.923</v>
+        <v>9.42</v>
       </c>
       <c r="J11">
-        <v>5400.0519999999997</v>
+        <v>16.035</v>
       </c>
       <c r="K11">
-        <v>195.69200000000001</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1519,81 +1630,81 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>3441.0320000000002</v>
+        <v>285.77</v>
       </c>
       <c r="O11">
-        <v>10206.897000000001</v>
+        <v>410.25</v>
       </c>
       <c r="P11">
-        <v>6770.0129999999999</v>
+        <v>16.035</v>
       </c>
       <c r="Q11">
-        <v>-54.524500000000003</v>
+        <v>-1722.8865000000001</v>
       </c>
       <c r="R11">
-        <v>41182</v>
+        <v>36707</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>3298.9540000000002</v>
+        <v>22137.751</v>
       </c>
       <c r="U11">
-        <v>583.15899999999999</v>
+        <v>1235.607</v>
       </c>
       <c r="V11">
-        <v>371.20800000000003</v>
+        <v>461.851</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>-672.77750000000003</v>
+        <v>-73.359499999999997</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>-45.796999999999997</v>
+        <v>219.67400000000001</v>
       </c>
       <c r="AA11">
-        <v>-35.975499999999997</v>
+        <v>532.71950000000004</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41274</v>
+        <v>36799</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>-35.975499999999997</v>
+        <v>3.9315000000000002</v>
       </c>
       <c r="D12">
-        <v>1141.4380000000001</v>
+        <v>134.76849999999999</v>
       </c>
       <c r="E12">
-        <v>616.298</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>737.09050000000002</v>
+        <v>86.578500000000005</v>
       </c>
       <c r="G12">
-        <v>3756.1640000000002</v>
+        <v>4018.0709999999999</v>
       </c>
       <c r="H12">
-        <v>13505.851000000001</v>
+        <v>24889.732</v>
       </c>
       <c r="I12">
-        <v>361.923</v>
+        <v>31.294</v>
       </c>
       <c r="J12">
-        <v>5400.0519999999997</v>
+        <v>7742.7129999999997</v>
       </c>
       <c r="K12">
-        <v>195.69200000000001</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1602,81 +1713,81 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>3441.0320000000002</v>
+        <v>216.08699999999999</v>
       </c>
       <c r="O12">
-        <v>10206.897000000001</v>
+        <v>8116.0079999999998</v>
       </c>
       <c r="P12">
-        <v>6770.0129999999999</v>
+        <v>7742.7129999999997</v>
       </c>
       <c r="Q12">
-        <v>-54.524500000000003</v>
+        <v>-591.52300000000002</v>
       </c>
       <c r="R12">
-        <v>41274</v>
+        <v>36799</v>
       </c>
       <c r="S12">
-        <v>29540</v>
+        <v>0</v>
       </c>
       <c r="T12">
-        <v>3298.9540000000002</v>
+        <v>16773.723999999998</v>
       </c>
       <c r="U12">
-        <v>583.15899999999999</v>
+        <v>693.06799999999998</v>
       </c>
       <c r="V12">
-        <v>371.20800000000003</v>
+        <v>76.323499999999996</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>-125.164</v>
       </c>
       <c r="X12">
-        <v>-672.77750000000003</v>
+        <v>3433.6619999999998</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>-45.796999999999997</v>
+        <v>-6413.3805000000002</v>
       </c>
       <c r="AA12">
-        <v>-35.975499999999997</v>
+        <v>3.9315000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41364</v>
+        <v>36891</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>164.41399999999999</v>
+        <v>3.9315000000000002</v>
       </c>
       <c r="D13">
-        <v>1382.8785</v>
+        <v>134.76849999999999</v>
       </c>
       <c r="E13">
-        <v>647.17600000000004</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>1018.4160000000001</v>
+        <v>86.578500000000005</v>
       </c>
       <c r="G13">
-        <v>4641.4260000000004</v>
+        <v>4018.0709999999999</v>
       </c>
       <c r="H13">
-        <v>12829.841</v>
+        <v>24889.732</v>
       </c>
       <c r="I13">
-        <v>1056.3699999999999</v>
+        <v>31.294</v>
       </c>
       <c r="J13">
-        <v>3580.2530000000002</v>
+        <v>7742.7129999999997</v>
       </c>
       <c r="K13">
-        <v>201.48099999999999</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1685,81 +1796,81 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>4653.7910000000002</v>
+        <v>216.08699999999999</v>
       </c>
       <c r="O13">
-        <v>9437.5930000000008</v>
+        <v>8116.0079999999998</v>
       </c>
       <c r="P13">
-        <v>5857.991</v>
+        <v>7742.7129999999997</v>
       </c>
       <c r="Q13">
-        <v>100.96550000000001</v>
+        <v>-591.52300000000002</v>
       </c>
       <c r="R13">
-        <v>41364</v>
+        <v>36891</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>3392.248</v>
+        <v>16773.723999999998</v>
       </c>
       <c r="U13">
-        <v>768.79100000000005</v>
+        <v>693.06799999999998</v>
       </c>
       <c r="V13">
-        <v>-24.151499999999999</v>
+        <v>76.323499999999996</v>
       </c>
       <c r="W13">
-        <v>-38.079000000000001</v>
+        <v>-125.164</v>
       </c>
       <c r="X13">
-        <v>-225.66900000000001</v>
+        <v>3433.6619999999998</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>431.61149999999998</v>
+        <v>-6413.3805000000002</v>
       </c>
       <c r="AA13">
-        <v>164.41399999999999</v>
+        <v>3.9315000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41455</v>
+        <v>38077</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>164.41399999999999</v>
+        <v>41.43</v>
       </c>
       <c r="D14">
-        <v>1382.8785</v>
+        <v>80.341499999999996</v>
       </c>
       <c r="E14">
-        <v>647.17600000000004</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>1018.4160000000001</v>
+        <v>74.504000000000005</v>
       </c>
       <c r="G14">
-        <v>4641.4260000000004</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>12829.841</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>1056.3699999999999</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>3580.2530000000002</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>201.48099999999999</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1768,81 +1879,81 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>4653.7910000000002</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>9437.5930000000008</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>5857.991</v>
+        <v>250.83099999999999</v>
       </c>
       <c r="Q14">
-        <v>100.96550000000001</v>
+        <v>62.904000000000003</v>
       </c>
       <c r="R14">
-        <v>41455</v>
+        <v>38077</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
       <c r="T14">
-        <v>3392.248</v>
+        <v>2689.942</v>
       </c>
       <c r="U14">
-        <v>768.79100000000005</v>
+        <v>0</v>
       </c>
       <c r="V14">
-        <v>-24.151499999999999</v>
+        <v>12.486499999999999</v>
       </c>
       <c r="W14">
-        <v>-38.079000000000001</v>
+        <v>-9.5640000000000001</v>
       </c>
       <c r="X14">
-        <v>-225.66900000000001</v>
+        <v>-40.920999999999999</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>431.61149999999998</v>
+        <v>36.012</v>
       </c>
       <c r="AA14">
-        <v>164.41399999999999</v>
+        <v>41.43</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41547</v>
+        <v>38168</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>116.0625</v>
+        <v>41.43</v>
       </c>
       <c r="D15">
-        <v>1238.4475</v>
+        <v>80.341499999999996</v>
       </c>
       <c r="E15">
-        <v>557.04499999999996</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>866.39549999999997</v>
+        <v>74.504000000000005</v>
       </c>
       <c r="G15">
-        <v>5130.4759999999997</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>12274.545</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>333.36500000000001</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>3607.0949999999998</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>145.90299999999999</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1851,81 +1962,81 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>4164.26</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>8828.7530000000006</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>4964.2039999999997</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>173.16550000000001</v>
+        <v>62.904000000000003</v>
       </c>
       <c r="R15">
-        <v>41547</v>
+        <v>38168</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>3445.7919999999999</v>
+        <v>0</v>
       </c>
       <c r="U15">
-        <v>1220.8030000000001</v>
+        <v>0</v>
       </c>
       <c r="V15">
-        <v>359.68099999999998</v>
+        <v>12.486499999999999</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>-9.5640000000000001</v>
       </c>
       <c r="X15">
-        <v>-329.13200000000001</v>
+        <v>-40.920999999999999</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>259.0505</v>
+        <v>36.012</v>
       </c>
       <c r="AA15">
-        <v>116.0625</v>
+        <v>41.43</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41639</v>
+        <v>38260</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>116.0625</v>
+        <v>-29.134</v>
       </c>
       <c r="D16">
-        <v>1238.4475</v>
+        <v>98.471999999999994</v>
       </c>
       <c r="E16">
-        <v>557.04499999999996</v>
+        <v>125.988</v>
       </c>
       <c r="F16">
-        <v>866.39549999999997</v>
+        <v>77.551000000000002</v>
       </c>
       <c r="G16">
-        <v>5130.4759999999997</v>
+        <v>791.68299999999999</v>
       </c>
       <c r="H16">
-        <v>12274.545</v>
+        <v>4929.4859999999999</v>
       </c>
       <c r="I16">
-        <v>333.36500000000001</v>
+        <v>112.822</v>
       </c>
       <c r="J16">
-        <v>3607.0949999999998</v>
+        <v>663.13599999999997</v>
       </c>
       <c r="K16">
-        <v>145.90299999999999</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1934,81 +2045,81 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>4164.26</v>
+        <v>546.28899999999999</v>
       </c>
       <c r="O16">
-        <v>8828.7530000000006</v>
+        <v>1513.992</v>
       </c>
       <c r="P16">
-        <v>4964.2039999999997</v>
+        <v>957.34500000000003</v>
       </c>
       <c r="Q16">
-        <v>173.16550000000001</v>
+        <v>31.273</v>
       </c>
       <c r="R16">
-        <v>41639</v>
+        <v>38260</v>
       </c>
       <c r="S16">
-        <v>31815</v>
+        <v>0</v>
       </c>
       <c r="T16">
-        <v>3445.7919999999999</v>
+        <v>3415.4940000000001</v>
       </c>
       <c r="U16">
-        <v>1220.8030000000001</v>
+        <v>622.28200000000004</v>
       </c>
       <c r="V16">
-        <v>359.68099999999998</v>
+        <v>111.45350000000001</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
       <c r="X16">
-        <v>-329.13200000000001</v>
+        <v>20.382000000000001</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>259.0505</v>
+        <v>109.04349999999999</v>
       </c>
       <c r="AA16">
-        <v>116.0625</v>
+        <v>-29.134</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41729</v>
+        <v>38352</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>-46.378999999999998</v>
+        <v>-29.134</v>
       </c>
       <c r="D17">
-        <v>957.36249999999995</v>
+        <v>98.471999999999994</v>
       </c>
       <c r="E17">
-        <v>720.72500000000002</v>
+        <v>125.988</v>
       </c>
       <c r="F17">
-        <v>698.18799999999999</v>
+        <v>77.551000000000002</v>
       </c>
       <c r="G17">
-        <v>5907.2290000000003</v>
+        <v>791.68299999999999</v>
       </c>
       <c r="H17">
-        <v>13396.08</v>
+        <v>4929.4859999999999</v>
       </c>
       <c r="I17">
-        <v>1089.1880000000001</v>
+        <v>112.822</v>
       </c>
       <c r="J17">
-        <v>4117.9840000000004</v>
+        <v>663.13599999999997</v>
       </c>
       <c r="K17">
-        <v>180.828</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2017,81 +2128,81 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>4802.6469999999999</v>
+        <v>546.28899999999999</v>
       </c>
       <c r="O17">
-        <v>10020.129000000001</v>
+        <v>1513.992</v>
       </c>
       <c r="P17">
-        <v>5479.6589999999997</v>
+        <v>957.34500000000003</v>
       </c>
       <c r="Q17">
-        <v>-79.561499999999995</v>
+        <v>31.273</v>
       </c>
       <c r="R17">
-        <v>41729</v>
+        <v>38352</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="T17">
-        <v>3375.951</v>
+        <v>3415.4940000000001</v>
       </c>
       <c r="U17">
-        <v>977.50800000000004</v>
+        <v>622.28200000000004</v>
       </c>
       <c r="V17">
-        <v>-32.235500000000002</v>
+        <v>111.45350000000001</v>
       </c>
       <c r="W17">
-        <v>-21.4315</v>
+        <v>0</v>
       </c>
       <c r="X17">
-        <v>45.636000000000003</v>
+        <v>20.382000000000001</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>-77.632499999999993</v>
+        <v>109.04349999999999</v>
       </c>
       <c r="AA17">
-        <v>-46.378999999999998</v>
+        <v>-29.134</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>41820</v>
+        <v>38442</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>-46.378999999999998</v>
+        <v>103.871</v>
       </c>
       <c r="D18">
-        <v>957.36249999999995</v>
+        <v>290.13200000000001</v>
       </c>
       <c r="E18">
-        <v>720.72500000000002</v>
+        <v>121.22</v>
       </c>
       <c r="F18">
-        <v>698.18799999999999</v>
+        <v>270.79849999999999</v>
       </c>
       <c r="G18">
-        <v>5907.2290000000003</v>
+        <v>1644.4960000000001</v>
       </c>
       <c r="H18">
-        <v>13396.08</v>
+        <v>5275.875</v>
       </c>
       <c r="I18">
-        <v>1089.1880000000001</v>
+        <v>127.893</v>
       </c>
       <c r="J18">
-        <v>4117.9840000000004</v>
+        <v>493.81099999999998</v>
       </c>
       <c r="K18">
-        <v>180.828</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2100,81 +2211,81 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>4802.6469999999999</v>
+        <v>746.78099999999995</v>
       </c>
       <c r="O18">
-        <v>10020.129000000001</v>
+        <v>1569.6869999999999</v>
       </c>
       <c r="P18">
-        <v>5479.6589999999997</v>
+        <v>948.38199999999995</v>
       </c>
       <c r="Q18">
-        <v>-79.561499999999995</v>
+        <v>428.3965</v>
       </c>
       <c r="R18">
-        <v>41820</v>
+        <v>38442</v>
       </c>
       <c r="S18">
         <v>0</v>
       </c>
       <c r="T18">
-        <v>3375.951</v>
+        <v>3706.1880000000001</v>
       </c>
       <c r="U18">
-        <v>977.50800000000004</v>
+        <v>1479.075</v>
       </c>
       <c r="V18">
-        <v>-32.235500000000002</v>
+        <v>50.537500000000001</v>
       </c>
       <c r="W18">
-        <v>-21.4315</v>
+        <v>-23.618500000000001</v>
       </c>
       <c r="X18">
-        <v>45.636000000000003</v>
+        <v>7.2575000000000003</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>-77.632499999999993</v>
+        <v>70.465999999999994</v>
       </c>
       <c r="AA18">
-        <v>-46.378999999999998</v>
+        <v>103.871</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>41912</v>
+        <v>38533</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>1.8915</v>
+        <v>103.871</v>
       </c>
       <c r="D19">
-        <v>1101.431</v>
+        <v>290.13200000000001</v>
       </c>
       <c r="E19">
-        <v>660.19399999999996</v>
+        <v>121.22</v>
       </c>
       <c r="F19">
-        <v>795.73050000000001</v>
+        <v>270.79849999999999</v>
       </c>
       <c r="G19">
-        <v>4296.0990000000002</v>
+        <v>1644.4960000000001</v>
       </c>
       <c r="H19">
-        <v>12310.261</v>
+        <v>5275.875</v>
       </c>
       <c r="I19">
-        <v>471.30200000000002</v>
+        <v>127.893</v>
       </c>
       <c r="J19">
-        <v>4365.433</v>
+        <v>493.81099999999998</v>
       </c>
       <c r="K19">
-        <v>230.309</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -2183,81 +2294,81 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>3341.7849999999999</v>
+        <v>746.78099999999995</v>
       </c>
       <c r="O19">
-        <v>8787.7630000000008</v>
+        <v>1569.6869999999999</v>
       </c>
       <c r="P19">
-        <v>5660.866</v>
+        <v>948.38199999999995</v>
       </c>
       <c r="Q19">
-        <v>-91.343999999999994</v>
+        <v>428.3965</v>
       </c>
       <c r="R19">
-        <v>41912</v>
+        <v>38533</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>3522.498</v>
+        <v>3706.1880000000001</v>
       </c>
       <c r="U19">
-        <v>890.78800000000001</v>
+        <v>1479.075</v>
       </c>
       <c r="V19">
-        <v>227.1345</v>
+        <v>50.537500000000001</v>
       </c>
       <c r="W19">
-        <v>0</v>
+        <v>-23.618500000000001</v>
       </c>
       <c r="X19">
-        <v>-9.6140000000000008</v>
+        <v>7.2575000000000003</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>-171.91499999999999</v>
+        <v>70.465999999999994</v>
       </c>
       <c r="AA19">
-        <v>1.8915</v>
+        <v>103.871</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42004</v>
+        <v>38625</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>1.8915</v>
+        <v>246.42250000000001</v>
       </c>
       <c r="D20">
-        <v>1101.431</v>
+        <v>401.85550000000001</v>
       </c>
       <c r="E20">
-        <v>660.19399999999996</v>
+        <v>139.982</v>
       </c>
       <c r="F20">
-        <v>795.73050000000001</v>
+        <v>378.78449999999998</v>
       </c>
       <c r="G20">
-        <v>4296.0990000000002</v>
+        <v>1779.1020000000001</v>
       </c>
       <c r="H20">
-        <v>12310.261</v>
+        <v>6113.4409999999998</v>
       </c>
       <c r="I20">
-        <v>471.30200000000002</v>
+        <v>175.101</v>
       </c>
       <c r="J20">
-        <v>4365.433</v>
+        <v>1008.698</v>
       </c>
       <c r="K20">
-        <v>230.309</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2266,81 +2377,81 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>3341.7849999999999</v>
+        <v>489.88099999999997</v>
       </c>
       <c r="O20">
-        <v>8787.7630000000008</v>
+        <v>1817.751</v>
       </c>
       <c r="P20">
-        <v>5660.866</v>
+        <v>1010.648</v>
       </c>
       <c r="Q20">
-        <v>-91.343999999999994</v>
+        <v>-137.178</v>
       </c>
       <c r="R20">
-        <v>42004</v>
+        <v>38625</v>
       </c>
       <c r="S20">
-        <v>29647</v>
+        <v>0</v>
       </c>
       <c r="T20">
-        <v>3522.498</v>
+        <v>4295.6899999999996</v>
       </c>
       <c r="U20">
-        <v>890.78800000000001</v>
+        <v>1204.7190000000001</v>
       </c>
       <c r="V20">
-        <v>227.1345</v>
+        <v>113.5425</v>
       </c>
       <c r="W20">
         <v>0</v>
       </c>
       <c r="X20">
-        <v>-9.6140000000000008</v>
+        <v>-238.5865</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>-171.91499999999999</v>
+        <v>651.37099999999998</v>
       </c>
       <c r="AA20">
-        <v>1.8915</v>
+        <v>246.42250000000001</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42094</v>
+        <v>38717</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>635.99850000000004</v>
+        <v>246.42250000000001</v>
       </c>
       <c r="D21">
-        <v>1624.4845</v>
+        <v>401.85550000000001</v>
       </c>
       <c r="E21">
-        <v>205.90100000000001</v>
+        <v>139.982</v>
       </c>
       <c r="F21">
-        <v>1369.6675</v>
+        <v>378.78449999999998</v>
       </c>
       <c r="G21">
-        <v>2426.0239999999999</v>
+        <v>1779.1020000000001</v>
       </c>
       <c r="H21">
-        <v>7601.6890000000003</v>
+        <v>6113.4409999999998</v>
       </c>
       <c r="I21">
-        <v>151.93799999999999</v>
+        <v>175.101</v>
       </c>
       <c r="J21">
-        <v>1516.4369999999999</v>
+        <v>1008.698</v>
       </c>
       <c r="K21">
-        <v>8.8960000000000008</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2349,81 +2460,81 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>572.29100000000005</v>
+        <v>489.88099999999997</v>
       </c>
       <c r="O21">
-        <v>2681.855</v>
+        <v>1817.751</v>
       </c>
       <c r="P21">
-        <v>1566.7650000000001</v>
+        <v>1010.648</v>
       </c>
       <c r="Q21">
-        <v>385.36</v>
+        <v>-137.178</v>
       </c>
       <c r="R21">
-        <v>42094</v>
+        <v>38717</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>4919.8339999999998</v>
+        <v>4295.6899999999996</v>
       </c>
       <c r="U21">
-        <v>1635.7280000000001</v>
+        <v>1204.7190000000001</v>
       </c>
       <c r="V21">
-        <v>-159.9135</v>
+        <v>113.5425</v>
       </c>
       <c r="W21">
-        <v>-39.628500000000003</v>
+        <v>0</v>
       </c>
       <c r="X21">
-        <v>-57.93</v>
+        <v>-238.5865</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>752.33050000000003</v>
+        <v>651.37099999999998</v>
       </c>
       <c r="AA21">
-        <v>635.99850000000004</v>
+        <v>246.42250000000001</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42185</v>
+        <v>38807</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>635.99850000000004</v>
+        <v>46.460999999999999</v>
       </c>
       <c r="D22">
-        <v>1624.4845</v>
+        <v>309.005</v>
       </c>
       <c r="E22">
-        <v>205.90100000000001</v>
+        <v>1056.5709999999999</v>
       </c>
       <c r="F22">
-        <v>1369.6675</v>
+        <v>272.64449999999999</v>
       </c>
       <c r="G22">
-        <v>2426.0239999999999</v>
+        <v>4276.8959999999997</v>
       </c>
       <c r="H22">
-        <v>7601.6890000000003</v>
+        <v>10427.843999999999</v>
       </c>
       <c r="I22">
-        <v>151.93799999999999</v>
+        <v>1157.981</v>
       </c>
       <c r="J22">
-        <v>1516.4369999999999</v>
+        <v>1937.165</v>
       </c>
       <c r="K22">
-        <v>8.8960000000000008</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2432,81 +2543,81 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>572.29100000000005</v>
+        <v>4011.433</v>
       </c>
       <c r="O22">
-        <v>2681.855</v>
+        <v>6223.2790000000005</v>
       </c>
       <c r="P22">
-        <v>1566.7650000000001</v>
+        <v>4241.9390000000003</v>
       </c>
       <c r="Q22">
-        <v>385.36</v>
+        <v>-413.13049999999998</v>
       </c>
       <c r="R22">
-        <v>42185</v>
+        <v>38807</v>
       </c>
       <c r="S22">
         <v>0</v>
       </c>
       <c r="T22">
-        <v>4919.8339999999998</v>
+        <v>4204.5649999999996</v>
       </c>
       <c r="U22">
-        <v>1635.7280000000001</v>
+        <v>388.83800000000002</v>
       </c>
       <c r="V22">
-        <v>-159.9135</v>
+        <v>21.500499999999999</v>
       </c>
       <c r="W22">
-        <v>-39.628500000000003</v>
+        <v>-170.196</v>
       </c>
       <c r="X22">
-        <v>-57.93</v>
+        <v>336.23700000000002</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>752.33050000000003</v>
+        <v>-680.91750000000002</v>
       </c>
       <c r="AA22">
-        <v>635.99850000000004</v>
+        <v>46.460999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42277</v>
+        <v>38898</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>46.460999999999999</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>309.005</v>
       </c>
       <c r="E23">
-        <v>151.25899999999999</v>
+        <v>1056.5709999999999</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>272.64449999999999</v>
       </c>
       <c r="G23">
-        <v>1782.981</v>
+        <v>4276.8959999999997</v>
       </c>
       <c r="H23">
-        <v>7375.0569999999998</v>
+        <v>10427.843999999999</v>
       </c>
       <c r="I23">
-        <v>114.39</v>
+        <v>1157.981</v>
       </c>
       <c r="J23">
-        <v>1565.43</v>
+        <v>1937.165</v>
       </c>
       <c r="K23">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -2515,81 +2626,81 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>483.74099999999999</v>
+        <v>4011.433</v>
       </c>
       <c r="O23">
-        <v>2627.6689999999999</v>
+        <v>6223.2790000000005</v>
       </c>
       <c r="P23">
-        <v>1603.35</v>
+        <v>4241.9390000000003</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>-413.13049999999998</v>
       </c>
       <c r="R23">
-        <v>42277</v>
+        <v>38898</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>4747.3879999999999</v>
+        <v>4204.5649999999996</v>
       </c>
       <c r="U23">
-        <v>1194.414</v>
+        <v>388.83800000000002</v>
       </c>
       <c r="V23">
-        <v>0</v>
+        <v>21.500499999999999</v>
       </c>
       <c r="W23">
-        <v>0</v>
+        <v>-170.196</v>
       </c>
       <c r="X23">
-        <v>0</v>
+        <v>336.23700000000002</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>-680.91750000000002</v>
       </c>
       <c r="AA23">
-        <v>0</v>
+        <v>46.460999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42369</v>
+        <v>38990</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>106.57599999999999</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>662.71299999999997</v>
       </c>
       <c r="E24">
-        <v>151.25899999999999</v>
+        <v>737.32500000000005</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>595.58150000000001</v>
       </c>
       <c r="G24">
-        <v>1782.981</v>
+        <v>3885.36</v>
       </c>
       <c r="H24">
-        <v>7375.0569999999998</v>
+        <v>11198.708000000001</v>
       </c>
       <c r="I24">
-        <v>114.39</v>
+        <v>694.84900000000005</v>
       </c>
       <c r="J24">
-        <v>1565.43</v>
+        <v>1448.067</v>
       </c>
       <c r="K24">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2598,81 +2709,81 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>483.74099999999999</v>
+        <v>3222.1610000000001</v>
       </c>
       <c r="O24">
-        <v>2627.6689999999999</v>
+        <v>6391.5619999999999</v>
       </c>
       <c r="P24">
-        <v>1603.35</v>
+        <v>3584.547</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>41.896999999999998</v>
       </c>
       <c r="R24">
-        <v>42369</v>
+        <v>38990</v>
       </c>
       <c r="S24">
-        <v>9552</v>
+        <v>0</v>
       </c>
       <c r="T24">
-        <v>4747.3879999999999</v>
+        <v>4807.1459999999997</v>
       </c>
       <c r="U24">
-        <v>1194.414</v>
+        <v>472.89699999999999</v>
       </c>
       <c r="V24">
-        <v>0</v>
+        <v>235.01300000000001</v>
       </c>
       <c r="W24">
         <v>0</v>
       </c>
       <c r="X24">
-        <v>0</v>
+        <v>-18.238</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>0</v>
+        <v>-14.157500000000001</v>
       </c>
       <c r="AA24">
-        <v>0</v>
+        <v>106.57599999999999</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42460</v>
+        <v>39082</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>36.75</v>
+        <v>106.57599999999999</v>
       </c>
       <c r="D25">
-        <v>425.10899999999998</v>
+        <v>662.71299999999997</v>
       </c>
       <c r="E25">
-        <v>526.91800000000001</v>
+        <v>737.32500000000005</v>
       </c>
       <c r="F25">
-        <v>282.334</v>
+        <v>595.58150000000001</v>
       </c>
       <c r="G25">
-        <v>2030.5930000000001</v>
+        <v>3885.36</v>
       </c>
       <c r="H25">
-        <v>8976.8140000000003</v>
+        <v>11198.708000000001</v>
       </c>
       <c r="I25">
-        <v>334.76299999999998</v>
+        <v>694.84900000000005</v>
       </c>
       <c r="J25">
-        <v>2572.27</v>
+        <v>1448.067</v>
       </c>
       <c r="K25">
-        <v>15.295999999999999</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2681,81 +2792,81 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>978.11800000000005</v>
+        <v>3222.1610000000001</v>
       </c>
       <c r="O25">
-        <v>4218.7740000000003</v>
+        <v>6391.5619999999999</v>
       </c>
       <c r="P25">
-        <v>2804.8960000000002</v>
+        <v>3584.547</v>
       </c>
       <c r="Q25">
-        <v>-159.88300000000001</v>
+        <v>41.896999999999998</v>
       </c>
       <c r="R25">
-        <v>42460</v>
+        <v>39082</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>4758.04</v>
+        <v>4807.1459999999997</v>
       </c>
       <c r="U25">
-        <v>888.74400000000003</v>
+        <v>472.89699999999999</v>
       </c>
       <c r="V25">
-        <v>20.671500000000002</v>
+        <v>235.01300000000001</v>
       </c>
       <c r="W25">
-        <v>-39.826250000000002</v>
+        <v>0</v>
       </c>
       <c r="X25">
-        <v>137.5675</v>
+        <v>-18.238</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>-116.54300000000001</v>
+        <v>-14.157500000000001</v>
       </c>
       <c r="AA25">
-        <v>36.75</v>
+        <v>106.57599999999999</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42551</v>
+        <v>39172</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>36.75</v>
+        <v>391.59300000000002</v>
       </c>
       <c r="D26">
-        <v>425.10899999999998</v>
+        <v>611.08849999999995</v>
       </c>
       <c r="E26">
-        <v>526.91800000000001</v>
+        <v>478.91300000000001</v>
       </c>
       <c r="F26">
-        <v>282.334</v>
+        <v>425.55799999999999</v>
       </c>
       <c r="G26">
-        <v>2030.5930000000001</v>
+        <v>5449.335</v>
       </c>
       <c r="H26">
-        <v>8976.8140000000003</v>
+        <v>13448.439</v>
       </c>
       <c r="I26">
-        <v>334.76299999999998</v>
+        <v>1212.001</v>
       </c>
       <c r="J26">
-        <v>2572.27</v>
+        <v>2455.8510000000001</v>
       </c>
       <c r="K26">
-        <v>15.295999999999999</v>
+        <v>0</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2764,81 +2875,81 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>978.11800000000005</v>
+        <v>4613.1170000000002</v>
       </c>
       <c r="O26">
-        <v>4218.7740000000003</v>
+        <v>7664.2439999999997</v>
       </c>
       <c r="P26">
-        <v>2804.8960000000002</v>
+        <v>5244.2290000000003</v>
       </c>
       <c r="Q26">
-        <v>-159.88300000000001</v>
+        <v>169.95599999999999</v>
       </c>
       <c r="R26">
-        <v>42551</v>
+        <v>39172</v>
       </c>
       <c r="S26">
         <v>0</v>
       </c>
       <c r="T26">
-        <v>4758.04</v>
+        <v>5784.1949999999997</v>
       </c>
       <c r="U26">
-        <v>888.74400000000003</v>
+        <v>804.36599999999999</v>
       </c>
       <c r="V26">
-        <v>20.671500000000002</v>
+        <v>-6.0125000000000002</v>
       </c>
       <c r="W26">
-        <v>-39.826250000000002</v>
+        <v>-28.414000000000001</v>
       </c>
       <c r="X26">
-        <v>137.5675</v>
+        <v>427.74349999999998</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>-116.54300000000001</v>
+        <v>-218.82300000000001</v>
       </c>
       <c r="AA26">
-        <v>36.75</v>
+        <v>391.59300000000002</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42643</v>
+        <v>39263</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>223.12350000000001</v>
+        <v>391.59300000000002</v>
       </c>
       <c r="D27">
-        <v>1079.3025</v>
+        <v>611.08849999999995</v>
       </c>
       <c r="E27">
-        <v>406.07100000000003</v>
+        <v>478.91300000000001</v>
       </c>
       <c r="F27">
-        <v>782.44100000000003</v>
+        <v>425.55799999999999</v>
       </c>
       <c r="G27">
-        <v>2517.9870000000001</v>
+        <v>5449.335</v>
       </c>
       <c r="H27">
-        <v>10380.288</v>
+        <v>13448.439</v>
       </c>
       <c r="I27">
-        <v>431.476</v>
+        <v>1212.001</v>
       </c>
       <c r="J27">
-        <v>2813.2959999999998</v>
+        <v>2455.8510000000001</v>
       </c>
       <c r="K27">
-        <v>5.1609999999999996</v>
+        <v>0</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -2847,81 +2958,81 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>1443.729</v>
+        <v>4613.1170000000002</v>
       </c>
       <c r="O27">
-        <v>5144.6009999999997</v>
+        <v>7664.2439999999997</v>
       </c>
       <c r="P27">
-        <v>3114.777</v>
+        <v>5244.2290000000003</v>
       </c>
       <c r="Q27">
-        <v>318.37900000000002</v>
+        <v>169.95599999999999</v>
       </c>
       <c r="R27">
-        <v>42643</v>
+        <v>39263</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>5235.6869999999999</v>
+        <v>5784.1949999999997</v>
       </c>
       <c r="U27">
-        <v>1515.367</v>
+        <v>804.36599999999999</v>
       </c>
       <c r="V27">
-        <v>48.168500000000002</v>
+        <v>-6.0125000000000002</v>
       </c>
       <c r="W27">
-        <v>0</v>
+        <v>-28.414000000000001</v>
       </c>
       <c r="X27">
-        <v>31.265000000000001</v>
+        <v>427.74349999999998</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>234.1345</v>
+        <v>-218.82300000000001</v>
       </c>
       <c r="AA27">
-        <v>223.12350000000001</v>
+        <v>391.59300000000002</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42735</v>
+        <v>39355</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>223.12350000000001</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>1079.3025</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>406.07100000000003</v>
+        <v>673.98900000000003</v>
       </c>
       <c r="F28">
-        <v>782.44100000000003</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>2517.9870000000001</v>
+        <v>4797.6289999999999</v>
       </c>
       <c r="H28">
-        <v>10380.288</v>
+        <v>17039.885999999999</v>
       </c>
       <c r="I28">
-        <v>431.476</v>
+        <v>967.68200000000002</v>
       </c>
       <c r="J28">
-        <v>2813.2959999999998</v>
+        <v>5119.1000000000004</v>
       </c>
       <c r="K28">
-        <v>5.1609999999999996</v>
+        <v>30.988</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2930,81 +3041,81 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>1443.729</v>
+        <v>4691.2730000000001</v>
       </c>
       <c r="O28">
-        <v>5144.6009999999997</v>
+        <v>11075.307000000001</v>
       </c>
       <c r="P28">
-        <v>3114.777</v>
+        <v>7967.74</v>
       </c>
       <c r="Q28">
-        <v>318.37900000000002</v>
+        <v>0</v>
       </c>
       <c r="R28">
-        <v>42735</v>
+        <v>39355</v>
       </c>
       <c r="S28">
-        <v>10718</v>
+        <v>0</v>
       </c>
       <c r="T28">
-        <v>5235.6869999999999</v>
+        <v>5964.5789999999997</v>
       </c>
       <c r="U28">
-        <v>1515.367</v>
+        <v>665.80499999999995</v>
       </c>
       <c r="V28">
-        <v>48.168500000000002</v>
+        <v>0</v>
       </c>
       <c r="W28">
         <v>0</v>
       </c>
       <c r="X28">
-        <v>31.265000000000001</v>
+        <v>0</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>234.1345</v>
+        <v>0</v>
       </c>
       <c r="AA28">
-        <v>223.12350000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>42825</v>
+        <v>39447</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>85.939499999999995</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>938.60850000000005</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>749.81899999999996</v>
+        <v>673.98900000000003</v>
       </c>
       <c r="F29">
-        <v>612.80600000000004</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>2949.482</v>
+        <v>4797.6289999999999</v>
       </c>
       <c r="H29">
-        <v>10261.865</v>
+        <v>17039.885999999999</v>
       </c>
       <c r="I29">
-        <v>598.19600000000003</v>
+        <v>967.68200000000002</v>
       </c>
       <c r="J29">
-        <v>2352.3069999999998</v>
+        <v>5119.1000000000004</v>
       </c>
       <c r="K29">
-        <v>10.069000000000001</v>
+        <v>30.988</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3013,81 +3124,81 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>1858.646</v>
+        <v>4691.2730000000001</v>
       </c>
       <c r="O29">
-        <v>5026.7280000000001</v>
+        <v>11075.307000000001</v>
       </c>
       <c r="P29">
-        <v>2588.2800000000002</v>
+        <v>7967.74</v>
       </c>
       <c r="Q29">
-        <v>-384.47699999999998</v>
+        <v>0</v>
       </c>
       <c r="R29">
-        <v>42825</v>
+        <v>39447</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>7700</v>
       </c>
       <c r="T29">
-        <v>5235.1369999999997</v>
+        <v>5964.5789999999997</v>
       </c>
       <c r="U29">
-        <v>747.12599999999998</v>
+        <v>665.80499999999995</v>
       </c>
       <c r="V29">
-        <v>30.955500000000001</v>
+        <v>0</v>
       </c>
       <c r="W29">
-        <v>-39.353499999999997</v>
+        <v>0</v>
       </c>
       <c r="X29">
-        <v>-36.701500000000003</v>
+        <v>0</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>-325.90800000000002</v>
+        <v>0</v>
       </c>
       <c r="AA29">
-        <v>85.939499999999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>42916</v>
+        <v>39538</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>85.939499999999995</v>
+        <v>120.8685</v>
       </c>
       <c r="D30">
-        <v>938.60850000000005</v>
+        <v>1135.0844999999999</v>
       </c>
       <c r="E30">
-        <v>749.81899999999996</v>
+        <v>686.61500000000001</v>
       </c>
       <c r="F30">
-        <v>612.80600000000004</v>
+        <v>819.28</v>
       </c>
       <c r="G30">
-        <v>2949.482</v>
+        <v>6213.799</v>
       </c>
       <c r="H30">
-        <v>10261.865</v>
+        <v>18273.848000000002</v>
       </c>
       <c r="I30">
-        <v>598.19600000000003</v>
+        <v>1312.145</v>
       </c>
       <c r="J30">
-        <v>2352.3069999999998</v>
+        <v>5892.3729999999996</v>
       </c>
       <c r="K30">
-        <v>10.069000000000001</v>
+        <v>20.282</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3096,81 +3207,81 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>1858.646</v>
+        <v>5773.5770000000002</v>
       </c>
       <c r="O30">
-        <v>5026.7280000000001</v>
+        <v>13195.496999999999</v>
       </c>
       <c r="P30">
-        <v>2588.2800000000002</v>
+        <v>8949.741</v>
       </c>
       <c r="Q30">
-        <v>-384.47699999999998</v>
+        <v>187.24100000000001</v>
       </c>
       <c r="R30">
-        <v>42916</v>
+        <v>39538</v>
       </c>
       <c r="S30">
         <v>0</v>
       </c>
       <c r="T30">
-        <v>5235.1369999999997</v>
+        <v>5078.3509999999997</v>
       </c>
       <c r="U30">
-        <v>747.12599999999998</v>
+        <v>1029.5809999999999</v>
       </c>
       <c r="V30">
-        <v>30.955500000000001</v>
+        <v>92.898499999999999</v>
       </c>
       <c r="W30">
-        <v>-39.353499999999997</v>
+        <v>-31.3005</v>
       </c>
       <c r="X30">
-        <v>-36.701500000000003</v>
+        <v>511.76850000000002</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>-325.90800000000002</v>
+        <v>-310.67149999999998</v>
       </c>
       <c r="AA30">
-        <v>85.939499999999995</v>
+        <v>120.8685</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43008</v>
+        <v>39629</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>153.67150000000001</v>
+        <v>120.8685</v>
       </c>
       <c r="D31">
-        <v>1069.6495</v>
+        <v>1135.0844999999999</v>
       </c>
       <c r="E31">
-        <v>675.91499999999996</v>
+        <v>686.61500000000001</v>
       </c>
       <c r="F31">
-        <v>643.11850000000004</v>
+        <v>819.28</v>
       </c>
       <c r="G31">
-        <v>2368.8270000000002</v>
+        <v>6213.799</v>
       </c>
       <c r="H31">
-        <v>11566.612999999999</v>
+        <v>18273.848000000002</v>
       </c>
       <c r="I31">
-        <v>596.90899999999999</v>
+        <v>1312.145</v>
       </c>
       <c r="J31">
-        <v>3164.6509999999998</v>
+        <v>5892.3729999999996</v>
       </c>
       <c r="K31">
-        <v>10.36</v>
+        <v>20.282</v>
       </c>
       <c r="L31">
         <v>0</v>
@@ -3179,81 +3290,81 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>1741.1130000000001</v>
+        <v>5773.5770000000002</v>
       </c>
       <c r="O31">
-        <v>5569.8379999999997</v>
+        <v>13195.496999999999</v>
       </c>
       <c r="P31">
-        <v>3305.0830000000001</v>
+        <v>8949.741</v>
       </c>
       <c r="Q31">
-        <v>71.503500000000003</v>
+        <v>187.24100000000001</v>
       </c>
       <c r="R31">
-        <v>43008</v>
+        <v>39629</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>5996.7749999999996</v>
+        <v>5078.3509999999997</v>
       </c>
       <c r="U31">
-        <v>889.19399999999996</v>
+        <v>1029.5809999999999</v>
       </c>
       <c r="V31">
-        <v>67.261499999999998</v>
+        <v>92.898499999999999</v>
       </c>
       <c r="W31">
-        <v>0</v>
+        <v>-31.3005</v>
       </c>
       <c r="X31">
-        <v>166.99250000000001</v>
+        <v>511.76850000000002</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>-190.364</v>
+        <v>-310.67149999999998</v>
       </c>
       <c r="AA31">
-        <v>153.67150000000001</v>
+        <v>120.8685</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43100</v>
+        <v>39721</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>153.67150000000001</v>
+        <v>-154.85</v>
       </c>
       <c r="D32">
-        <v>1069.6495</v>
+        <v>948.40449999999998</v>
       </c>
       <c r="E32">
-        <v>675.91499999999996</v>
+        <v>594.178</v>
       </c>
       <c r="F32">
-        <v>643.11850000000004</v>
+        <v>594.96249999999998</v>
       </c>
       <c r="G32">
-        <v>2368.8270000000002</v>
+        <v>4694.5860000000002</v>
       </c>
       <c r="H32">
-        <v>11566.612999999999</v>
+        <v>15552.404</v>
       </c>
       <c r="I32">
-        <v>596.90899999999999</v>
+        <v>951.697</v>
       </c>
       <c r="J32">
-        <v>3164.6509999999998</v>
+        <v>5456.44</v>
       </c>
       <c r="K32">
-        <v>10.36</v>
+        <v>92.82</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3262,81 +3373,81 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>1741.1130000000001</v>
+        <v>4362.6909999999998</v>
       </c>
       <c r="O32">
-        <v>5569.8379999999997</v>
+        <v>11179.762000000001</v>
       </c>
       <c r="P32">
-        <v>3305.0830000000001</v>
+        <v>7634.3159999999998</v>
       </c>
       <c r="Q32">
-        <v>71.503500000000003</v>
+        <v>-179.61199999999999</v>
       </c>
       <c r="R32">
-        <v>43100</v>
+        <v>39721</v>
       </c>
       <c r="S32">
-        <v>14439</v>
+        <v>0</v>
       </c>
       <c r="T32">
-        <v>5996.7749999999996</v>
+        <v>4372.6419999999998</v>
       </c>
       <c r="U32">
-        <v>889.19399999999996</v>
+        <v>707.81100000000004</v>
       </c>
       <c r="V32">
-        <v>67.261499999999998</v>
+        <v>454.30500000000001</v>
       </c>
       <c r="W32">
         <v>0</v>
       </c>
       <c r="X32">
-        <v>166.99250000000001</v>
+        <v>-969.22950000000003</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>-190.364</v>
+        <v>426.14699999999999</v>
       </c>
       <c r="AA32">
-        <v>153.67150000000001</v>
+        <v>-154.85</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43190</v>
+        <v>39813</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>94.836500000000001</v>
+        <v>-154.85</v>
       </c>
       <c r="D33">
-        <v>1265.7929999999999</v>
+        <v>948.40449999999998</v>
       </c>
       <c r="E33">
-        <v>866.83500000000004</v>
+        <v>594.178</v>
       </c>
       <c r="F33">
-        <v>723.84400000000005</v>
+        <v>594.96249999999998</v>
       </c>
       <c r="G33">
-        <v>3126.6779999999999</v>
+        <v>4694.5860000000002</v>
       </c>
       <c r="H33">
-        <v>12284.686</v>
+        <v>15552.404</v>
       </c>
       <c r="I33">
-        <v>834.47299999999996</v>
+        <v>951.697</v>
       </c>
       <c r="J33">
-        <v>3134.2139999999999</v>
+        <v>5456.44</v>
       </c>
       <c r="K33">
-        <v>23.157</v>
+        <v>92.82</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3345,81 +3456,81 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>2168.605</v>
+        <v>4362.6909999999998</v>
       </c>
       <c r="O33">
-        <v>5923.8010000000004</v>
+        <v>11179.762000000001</v>
       </c>
       <c r="P33">
-        <v>3359.0940000000001</v>
+        <v>7634.3159999999998</v>
       </c>
       <c r="Q33">
-        <v>-59.113</v>
+        <v>-179.61199999999999</v>
       </c>
       <c r="R33">
-        <v>43190</v>
+        <v>39813</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>6360.8850000000002</v>
+        <v>4372.6419999999998</v>
       </c>
       <c r="U33">
-        <v>785.57299999999998</v>
+        <v>707.81100000000004</v>
       </c>
       <c r="V33">
-        <v>-4.8120000000000003</v>
+        <v>454.30500000000001</v>
       </c>
       <c r="W33">
-        <v>-44.896999999999998</v>
+        <v>0</v>
       </c>
       <c r="X33">
-        <v>34.211500000000001</v>
+        <v>-969.22950000000003</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>-33.982999999999997</v>
+        <v>426.14699999999999</v>
       </c>
       <c r="AA33">
-        <v>94.836500000000001</v>
+        <v>-154.85</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43281</v>
+        <v>39903</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>94.836500000000001</v>
+        <v>-60.453000000000003</v>
       </c>
       <c r="D34">
-        <v>1265.7929999999999</v>
+        <v>926.76400000000001</v>
       </c>
       <c r="E34">
-        <v>866.83500000000004</v>
+        <v>583.03599999999994</v>
       </c>
       <c r="F34">
-        <v>723.84400000000005</v>
+        <v>624.22400000000005</v>
       </c>
       <c r="G34">
-        <v>3126.6779999999999</v>
+        <v>4411.5780000000004</v>
       </c>
       <c r="H34">
-        <v>12284.686</v>
+        <v>15297.311</v>
       </c>
       <c r="I34">
-        <v>834.47299999999996</v>
+        <v>1341.114</v>
       </c>
       <c r="J34">
-        <v>3134.2139999999999</v>
+        <v>5586.97</v>
       </c>
       <c r="K34">
-        <v>23.157</v>
+        <v>44.030999999999999</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3428,81 +3539,81 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>2168.605</v>
+        <v>4359.7179999999998</v>
       </c>
       <c r="O34">
-        <v>5923.8010000000004</v>
+        <v>11350.197</v>
       </c>
       <c r="P34">
-        <v>3359.0940000000001</v>
+        <v>7329.0940000000001</v>
       </c>
       <c r="Q34">
-        <v>-59.113</v>
+        <v>-86.548500000000004</v>
       </c>
       <c r="R34">
-        <v>43281</v>
+        <v>39903</v>
       </c>
       <c r="S34">
         <v>0</v>
       </c>
       <c r="T34">
-        <v>6360.8850000000002</v>
+        <v>3947.114</v>
       </c>
       <c r="U34">
-        <v>785.57299999999998</v>
+        <v>485.07100000000003</v>
       </c>
       <c r="V34">
-        <v>-4.8120000000000003</v>
+        <v>281.8</v>
       </c>
       <c r="W34">
-        <v>-44.896999999999998</v>
+        <v>-19.618500000000001</v>
       </c>
       <c r="X34">
-        <v>34.211500000000001</v>
+        <v>-259.08449999999999</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>-33.982999999999997</v>
+        <v>-36.979500000000002</v>
       </c>
       <c r="AA34">
-        <v>94.836500000000001</v>
+        <v>-60.453000000000003</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43373</v>
+        <v>39994</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>27.867000000000001</v>
+        <v>-60.453000000000003</v>
       </c>
       <c r="D35">
-        <v>1193.9860000000001</v>
+        <v>926.76400000000001</v>
       </c>
       <c r="E35">
-        <v>610.29399999999998</v>
+        <v>583.03599999999994</v>
       </c>
       <c r="F35">
-        <v>720.57950000000005</v>
+        <v>624.22400000000005</v>
       </c>
       <c r="G35">
-        <v>2575.9270000000001</v>
+        <v>4411.5780000000004</v>
       </c>
       <c r="H35">
-        <v>12118.047</v>
+        <v>15297.311</v>
       </c>
       <c r="I35">
-        <v>574.71299999999997</v>
+        <v>1341.114</v>
       </c>
       <c r="J35">
-        <v>3125.364</v>
+        <v>5586.97</v>
       </c>
       <c r="K35">
-        <v>15.603</v>
+        <v>44.030999999999999</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -3511,81 +3622,81 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>1913.952</v>
+        <v>4359.7179999999998</v>
       </c>
       <c r="O35">
-        <v>5843.9679999999998</v>
+        <v>11350.197</v>
       </c>
       <c r="P35">
-        <v>3407.58</v>
+        <v>7329.0940000000001</v>
       </c>
       <c r="Q35">
-        <v>87.251999999999995</v>
+        <v>-86.548500000000004</v>
       </c>
       <c r="R35">
-        <v>43373</v>
+        <v>39994</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>6274.0789999999997</v>
+        <v>3947.114</v>
       </c>
       <c r="U35">
-        <v>950.71500000000003</v>
+        <v>485.07100000000003</v>
       </c>
       <c r="V35">
-        <v>125.9145</v>
+        <v>281.8</v>
       </c>
       <c r="W35">
-        <v>0</v>
+        <v>-19.618500000000001</v>
       </c>
       <c r="X35">
-        <v>-30.414999999999999</v>
+        <v>-259.08449999999999</v>
       </c>
       <c r="Y35">
         <v>0</v>
       </c>
       <c r="Z35">
-        <v>-117.0005</v>
+        <v>-36.979500000000002</v>
       </c>
       <c r="AA35">
-        <v>27.867000000000001</v>
+        <v>-60.453000000000003</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43465</v>
+        <v>40086</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>27.867000000000001</v>
+        <v>-39.212499999999999</v>
       </c>
       <c r="D36">
-        <v>1193.9860000000001</v>
+        <v>1072.7545</v>
       </c>
       <c r="E36">
-        <v>610.29399999999998</v>
+        <v>544.30200000000002</v>
       </c>
       <c r="F36">
-        <v>720.57950000000005</v>
+        <v>751.32950000000005</v>
       </c>
       <c r="G36">
-        <v>2575.9270000000001</v>
+        <v>4120.3450000000003</v>
       </c>
       <c r="H36">
-        <v>12118.047</v>
+        <v>14664.218999999999</v>
       </c>
       <c r="I36">
-        <v>574.71299999999997</v>
+        <v>1016.2089999999999</v>
       </c>
       <c r="J36">
-        <v>3125.364</v>
+        <v>5280.0609999999997</v>
       </c>
       <c r="K36">
-        <v>15.603</v>
+        <v>99.975999999999999</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -3594,81 +3705,81 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>1913.952</v>
+        <v>4322.2219999999998</v>
       </c>
       <c r="O36">
-        <v>5843.9679999999998</v>
+        <v>10792.269</v>
       </c>
       <c r="P36">
-        <v>3407.58</v>
+        <v>7424.4390000000003</v>
       </c>
       <c r="Q36">
-        <v>87.251999999999995</v>
+        <v>185.56299999999999</v>
       </c>
       <c r="R36">
-        <v>43465</v>
+        <v>40086</v>
       </c>
       <c r="S36">
-        <v>20294</v>
+        <v>0</v>
       </c>
       <c r="T36">
-        <v>6274.0789999999997</v>
+        <v>3871.95</v>
       </c>
       <c r="U36">
-        <v>950.71500000000003</v>
+        <v>867.298</v>
       </c>
       <c r="V36">
-        <v>125.9145</v>
+        <v>263.75349999999997</v>
       </c>
       <c r="W36">
         <v>0</v>
       </c>
       <c r="X36">
-        <v>-30.414999999999999</v>
+        <v>-184.12450000000001</v>
       </c>
       <c r="Y36">
         <v>0</v>
       </c>
       <c r="Z36">
-        <v>-117.0005</v>
+        <v>181.31</v>
       </c>
       <c r="AA36">
-        <v>27.867000000000001</v>
+        <v>-39.212499999999999</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43555</v>
+        <v>40178</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>88.073999999999998</v>
+        <v>-39.212499999999999</v>
       </c>
       <c r="D37">
-        <v>1353.5875000000001</v>
+        <v>1072.7545</v>
       </c>
       <c r="E37">
-        <v>871.56399999999996</v>
+        <v>544.30200000000002</v>
       </c>
       <c r="F37">
-        <v>817.16200000000003</v>
+        <v>751.32950000000005</v>
       </c>
       <c r="G37">
-        <v>2963.2</v>
+        <v>4120.3450000000003</v>
       </c>
       <c r="H37">
-        <v>13508.808999999999</v>
+        <v>14664.218999999999</v>
       </c>
       <c r="I37">
-        <v>902.41899999999998</v>
+        <v>1016.2089999999999</v>
       </c>
       <c r="J37">
-        <v>3238.49</v>
+        <v>5280.0609999999997</v>
       </c>
       <c r="K37">
-        <v>22.922999999999998</v>
+        <v>99.975999999999999</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3677,81 +3788,81 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>2138.9810000000002</v>
+        <v>4322.2219999999998</v>
       </c>
       <c r="O37">
-        <v>6820.4430000000002</v>
+        <v>10792.269</v>
       </c>
       <c r="P37">
-        <v>4271.9639999999999</v>
+        <v>7424.4390000000003</v>
       </c>
       <c r="Q37">
-        <v>116.87949999999999</v>
+        <v>185.56299999999999</v>
       </c>
       <c r="R37">
-        <v>43555</v>
+        <v>40178</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>6688.366</v>
+        <v>3871.95</v>
       </c>
       <c r="U37">
-        <v>1191.7940000000001</v>
+        <v>867.298</v>
       </c>
       <c r="V37">
-        <v>43.185000000000002</v>
+        <v>263.75349999999997</v>
       </c>
       <c r="W37">
-        <v>-45.775500000000001</v>
+        <v>0</v>
       </c>
       <c r="X37">
-        <v>49.668999999999997</v>
+        <v>-184.12450000000001</v>
       </c>
       <c r="Y37">
-        <v>588.75</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>96.089500000000001</v>
+        <v>181.31</v>
       </c>
       <c r="AA37">
-        <v>88.073999999999998</v>
+        <v>-39.212499999999999</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43646</v>
+        <v>40268</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>88.073999999999998</v>
+        <v>44.256</v>
       </c>
       <c r="D38">
-        <v>1353.5875000000001</v>
+        <v>1049.2605000000001</v>
       </c>
       <c r="E38">
-        <v>871.56399999999996</v>
+        <v>584.77200000000005</v>
       </c>
       <c r="F38">
-        <v>817.16200000000003</v>
+        <v>729.54399999999998</v>
       </c>
       <c r="G38">
-        <v>2963.2</v>
+        <v>4852.47</v>
       </c>
       <c r="H38">
-        <v>13508.808999999999</v>
+        <v>15032.040999999999</v>
       </c>
       <c r="I38">
-        <v>902.41899999999998</v>
+        <v>1346.153</v>
       </c>
       <c r="J38">
-        <v>3238.49</v>
+        <v>5707.8509999999997</v>
       </c>
       <c r="K38">
-        <v>22.922999999999998</v>
+        <v>202.72900000000001</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -3760,81 +3871,81 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>2138.9810000000002</v>
+        <v>4400.4690000000001</v>
       </c>
       <c r="O38">
-        <v>6820.4430000000002</v>
+        <v>11179.248</v>
       </c>
       <c r="P38">
-        <v>4271.9639999999999</v>
+        <v>7615.1809999999996</v>
       </c>
       <c r="Q38">
-        <v>116.87949999999999</v>
+        <v>2.7995000000000001</v>
       </c>
       <c r="R38">
-        <v>43646</v>
+        <v>40268</v>
       </c>
       <c r="S38">
         <v>0</v>
       </c>
       <c r="T38">
-        <v>6688.366</v>
+        <v>3852.7930000000001</v>
       </c>
       <c r="U38">
-        <v>1191.7940000000001</v>
+        <v>864.46500000000003</v>
       </c>
       <c r="V38">
-        <v>43.185000000000002</v>
+        <v>23.274999999999999</v>
       </c>
       <c r="W38">
-        <v>-45.775500000000001</v>
+        <v>-30.734000000000002</v>
       </c>
       <c r="X38">
-        <v>49.668999999999997</v>
+        <v>-150.02199999999999</v>
       </c>
       <c r="Y38">
-        <v>588.75</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>96.089500000000001</v>
+        <v>202.86</v>
       </c>
       <c r="AA38">
-        <v>88.073999999999998</v>
+        <v>44.256</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43738</v>
+        <v>40359</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>-26.6</v>
+        <v>44.256</v>
       </c>
       <c r="D39">
-        <v>1200.366</v>
+        <v>1049.2605000000001</v>
       </c>
       <c r="E39">
-        <v>649.97500000000002</v>
+        <v>584.77200000000005</v>
       </c>
       <c r="F39">
-        <v>740.85649999999998</v>
+        <v>729.54399999999998</v>
       </c>
       <c r="G39">
-        <v>2870.317</v>
+        <v>4852.47</v>
       </c>
       <c r="H39">
-        <v>13890.282999999999</v>
+        <v>15032.040999999999</v>
       </c>
       <c r="I39">
-        <v>601.471</v>
+        <v>1346.153</v>
       </c>
       <c r="J39">
-        <v>3375.6779999999999</v>
+        <v>5707.8509999999997</v>
       </c>
       <c r="K39">
-        <v>15.064</v>
+        <v>202.72900000000001</v>
       </c>
       <c r="L39">
         <v>0</v>
@@ -3843,81 +3954,81 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>2587.3679999999999</v>
+        <v>4400.4690000000001</v>
       </c>
       <c r="O39">
-        <v>7259.1769999999997</v>
+        <v>11179.248</v>
       </c>
       <c r="P39">
-        <v>4239.2640000000001</v>
+        <v>7615.1809999999996</v>
       </c>
       <c r="Q39">
-        <v>-46.2425</v>
+        <v>2.7995000000000001</v>
       </c>
       <c r="R39">
-        <v>43738</v>
+        <v>40359</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>6631.1059999999998</v>
+        <v>3852.7930000000001</v>
       </c>
       <c r="U39">
-        <v>1091.45</v>
+        <v>864.46500000000003</v>
       </c>
       <c r="V39">
-        <v>196.59950000000001</v>
+        <v>23.274999999999999</v>
       </c>
       <c r="W39">
-        <v>0</v>
+        <v>-30.734000000000002</v>
       </c>
       <c r="X39">
-        <v>182.292</v>
+        <v>-150.02199999999999</v>
       </c>
       <c r="Y39">
-        <v>428.62799999999999</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>-136.917</v>
+        <v>202.86</v>
       </c>
       <c r="AA39">
-        <v>-26.6</v>
+        <v>44.256</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>43830</v>
+        <v>40451</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>-26.6</v>
+        <v>13.238</v>
       </c>
       <c r="D40">
-        <v>1200.366</v>
+        <v>1054.2275</v>
       </c>
       <c r="E40">
-        <v>649.97500000000002</v>
+        <v>589.66700000000003</v>
       </c>
       <c r="F40">
-        <v>740.85649999999998</v>
+        <v>705.06200000000001</v>
       </c>
       <c r="G40">
-        <v>2870.317</v>
+        <v>4509.4309999999996</v>
       </c>
       <c r="H40">
-        <v>13890.282999999999</v>
+        <v>14173.087</v>
       </c>
       <c r="I40">
-        <v>601.471</v>
+        <v>394.524</v>
       </c>
       <c r="J40">
-        <v>3375.6779999999999</v>
+        <v>5698.9009999999998</v>
       </c>
       <c r="K40">
-        <v>15.064</v>
+        <v>230.69</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -3926,81 +4037,81 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>2587.3679999999999</v>
+        <v>3523.89</v>
       </c>
       <c r="O40">
-        <v>7259.1769999999997</v>
+        <v>10230.831</v>
       </c>
       <c r="P40">
-        <v>4239.2640000000001</v>
+        <v>7186.1850000000004</v>
       </c>
       <c r="Q40">
-        <v>-46.2425</v>
+        <v>145.803</v>
       </c>
       <c r="R40">
-        <v>43830</v>
+        <v>40451</v>
       </c>
       <c r="S40">
-        <v>22361</v>
+        <v>0</v>
       </c>
       <c r="T40">
-        <v>6631.1059999999998</v>
+        <v>3942.2559999999999</v>
       </c>
       <c r="U40">
-        <v>1091.45</v>
+        <v>1071.0329999999999</v>
       </c>
       <c r="V40">
-        <v>196.59950000000001</v>
+        <v>294.19799999999998</v>
       </c>
       <c r="W40">
         <v>0</v>
       </c>
       <c r="X40">
-        <v>182.292</v>
+        <v>-193.47450000000001</v>
       </c>
       <c r="Y40">
-        <v>428.62799999999999</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>-136.917</v>
+        <v>90.077500000000001</v>
       </c>
       <c r="AA40">
-        <v>-26.6</v>
+        <v>13.238</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>43921</v>
+        <v>40543</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>-194.904</v>
+        <v>13.238</v>
       </c>
       <c r="D41">
-        <v>944.56550000000004</v>
+        <v>1054.2275</v>
       </c>
       <c r="E41">
-        <v>821.38300000000004</v>
+        <v>589.66700000000003</v>
       </c>
       <c r="F41">
-        <v>585.97450000000003</v>
+        <v>705.06200000000001</v>
       </c>
       <c r="G41">
-        <v>3135.0120000000002</v>
+        <v>4509.4309999999996</v>
       </c>
       <c r="H41">
-        <v>13950.569</v>
+        <v>14173.087</v>
       </c>
       <c r="I41">
-        <v>1373.6289999999999</v>
+        <v>394.524</v>
       </c>
       <c r="J41">
-        <v>4034.8530000000001</v>
+        <v>5698.9009999999998</v>
       </c>
       <c r="K41">
-        <v>129.28200000000001</v>
+        <v>230.69</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4009,128 +4120,3199 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>2704.953</v>
+        <v>3523.89</v>
       </c>
       <c r="O41">
-        <v>8034.9179999999997</v>
+        <v>10230.831</v>
       </c>
       <c r="P41">
-        <v>5082.3270000000002</v>
+        <v>7186.1850000000004</v>
       </c>
       <c r="Q41">
-        <v>184.05799999999999</v>
+        <v>145.803</v>
       </c>
       <c r="R41">
-        <v>43921</v>
+        <v>40543</v>
       </c>
       <c r="S41">
-        <v>0</v>
+        <v>25734</v>
       </c>
       <c r="T41">
-        <v>5915.6509999999998</v>
+        <v>3942.2559999999999</v>
       </c>
       <c r="U41">
-        <v>1573.7850000000001</v>
+        <v>1071.0329999999999</v>
       </c>
       <c r="V41">
-        <v>68.921499999999995</v>
+        <v>294.19799999999998</v>
       </c>
       <c r="W41">
         <v>0</v>
       </c>
       <c r="X41">
-        <v>282.17349999999999</v>
+        <v>-193.47450000000001</v>
       </c>
       <c r="Y41">
-        <v>426.786</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>-158.48349999999999</v>
+        <v>90.077500000000001</v>
       </c>
       <c r="AA41">
-        <v>-194.904</v>
+        <v>13.238</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44012</v>
+        <v>40633</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>-53.165999999999997</v>
+      </c>
+      <c r="D42">
+        <v>949.50850000000003</v>
+      </c>
+      <c r="E42">
+        <v>620.12800000000004</v>
+      </c>
+      <c r="F42">
+        <v>622.18299999999999</v>
+      </c>
+      <c r="G42">
+        <v>4677.152</v>
+      </c>
+      <c r="H42">
+        <v>14453.81</v>
+      </c>
+      <c r="I42">
+        <v>1241.0219999999999</v>
+      </c>
+      <c r="J42">
+        <v>5679.4139999999998</v>
+      </c>
+      <c r="K42">
+        <v>174.114</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>3819.1489999999999</v>
+      </c>
+      <c r="O42">
+        <v>10492.99</v>
+      </c>
+      <c r="P42">
+        <v>7144.8620000000001</v>
+      </c>
+      <c r="Q42">
+        <v>-158.1995</v>
+      </c>
+      <c r="R42">
+        <v>40633</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>3960.82</v>
+      </c>
+      <c r="U42">
+        <v>747.548</v>
+      </c>
+      <c r="V42">
+        <v>45.158999999999999</v>
+      </c>
+      <c r="W42">
+        <v>-33.683999999999997</v>
+      </c>
+      <c r="X42">
+        <v>-158.68199999999999</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>2.8115000000000001</v>
+      </c>
+      <c r="AA42">
+        <v>-53.165999999999997</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>-53.165999999999997</v>
+      </c>
+      <c r="D43">
+        <v>949.50850000000003</v>
+      </c>
+      <c r="E43">
+        <v>620.12800000000004</v>
+      </c>
+      <c r="F43">
+        <v>622.18299999999999</v>
+      </c>
+      <c r="G43">
+        <v>4677.152</v>
+      </c>
+      <c r="H43">
+        <v>14453.81</v>
+      </c>
+      <c r="I43">
+        <v>1241.0219999999999</v>
+      </c>
+      <c r="J43">
+        <v>5679.4139999999998</v>
+      </c>
+      <c r="K43">
+        <v>174.114</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>3819.1489999999999</v>
+      </c>
+      <c r="O43">
+        <v>10492.99</v>
+      </c>
+      <c r="P43">
+        <v>7144.8620000000001</v>
+      </c>
+      <c r="Q43">
+        <v>-158.1995</v>
+      </c>
+      <c r="R43">
+        <v>40724</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>3960.82</v>
+      </c>
+      <c r="U43">
+        <v>747.548</v>
+      </c>
+      <c r="V43">
+        <v>45.158999999999999</v>
+      </c>
+      <c r="W43">
+        <v>-33.683999999999997</v>
+      </c>
+      <c r="X43">
+        <v>-158.68199999999999</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>2.8115000000000001</v>
+      </c>
+      <c r="AA43">
+        <v>-53.165999999999997</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>-2.2075</v>
+      </c>
+      <c r="D44">
+        <v>1151.3575000000001</v>
+      </c>
+      <c r="E44">
+        <v>639.88400000000001</v>
+      </c>
+      <c r="F44">
+        <v>729.75850000000003</v>
+      </c>
+      <c r="G44">
+        <v>3839.4830000000002</v>
+      </c>
+      <c r="H44">
+        <v>14542.52</v>
+      </c>
+      <c r="I44">
+        <v>380.96800000000002</v>
+      </c>
+      <c r="J44">
+        <v>5771.91</v>
+      </c>
+      <c r="K44">
+        <v>59.914999999999999</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>3453.76</v>
+      </c>
+      <c r="O44">
+        <v>10681.51</v>
+      </c>
+      <c r="P44">
+        <v>6990.4470000000001</v>
+      </c>
+      <c r="Q44">
+        <v>-119.048</v>
+      </c>
+      <c r="R44">
+        <v>40816</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>3861.01</v>
+      </c>
+      <c r="U44">
+        <v>511.98099999999999</v>
+      </c>
+      <c r="V44">
+        <v>448.88099999999997</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>-235.9085</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>-277.10399999999998</v>
+      </c>
+      <c r="AA44">
+        <v>-2.2075</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>-2.2075</v>
+      </c>
+      <c r="D45">
+        <v>1151.3575000000001</v>
+      </c>
+      <c r="E45">
+        <v>639.88400000000001</v>
+      </c>
+      <c r="F45">
+        <v>729.75850000000003</v>
+      </c>
+      <c r="G45">
+        <v>3839.4830000000002</v>
+      </c>
+      <c r="H45">
+        <v>14542.52</v>
+      </c>
+      <c r="I45">
+        <v>380.96800000000002</v>
+      </c>
+      <c r="J45">
+        <v>5771.91</v>
+      </c>
+      <c r="K45">
+        <v>59.914999999999999</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>3453.76</v>
+      </c>
+      <c r="O45">
+        <v>10681.51</v>
+      </c>
+      <c r="P45">
+        <v>6990.4470000000001</v>
+      </c>
+      <c r="Q45">
+        <v>-119.048</v>
+      </c>
+      <c r="R45">
+        <v>40908</v>
+      </c>
+      <c r="S45">
+        <v>38149</v>
+      </c>
+      <c r="T45">
+        <v>3861.01</v>
+      </c>
+      <c r="U45">
+        <v>511.98099999999999</v>
+      </c>
+      <c r="V45">
+        <v>448.88099999999997</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>-235.9085</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>-277.10399999999998</v>
+      </c>
+      <c r="AA45">
+        <v>-2.2075</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>-63.295999999999999</v>
+      </c>
+      <c r="D46">
+        <v>1054.8040000000001</v>
+      </c>
+      <c r="E46">
+        <v>679.55799999999999</v>
+      </c>
+      <c r="F46">
+        <v>674.81799999999998</v>
+      </c>
+      <c r="G46">
+        <v>4540.308</v>
+      </c>
+      <c r="H46">
+        <v>15087.7</v>
+      </c>
+      <c r="I46">
+        <v>1145.4670000000001</v>
+      </c>
+      <c r="J46">
+        <v>5830.7049999999999</v>
+      </c>
+      <c r="K46">
+        <v>212.93899999999999</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>4331.0640000000003</v>
+      </c>
+      <c r="O46">
+        <v>11429.645</v>
+      </c>
+      <c r="P46">
+        <v>7796.0450000000001</v>
+      </c>
+      <c r="Q46">
+        <v>83.947999999999993</v>
+      </c>
+      <c r="R46">
+        <v>40999</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>3658.0549999999998</v>
+      </c>
+      <c r="U46">
+        <v>299.89800000000002</v>
+      </c>
+      <c r="V46">
+        <v>-30.363</v>
+      </c>
+      <c r="W46">
+        <v>-36.603499999999997</v>
+      </c>
+      <c r="X46">
+        <v>107.8995</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>-31.837</v>
+      </c>
+      <c r="AA46">
+        <v>-63.295999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>-63.295999999999999</v>
+      </c>
+      <c r="D47">
+        <v>1054.8040000000001</v>
+      </c>
+      <c r="E47">
+        <v>679.55799999999999</v>
+      </c>
+      <c r="F47">
+        <v>674.81799999999998</v>
+      </c>
+      <c r="G47">
+        <v>4540.308</v>
+      </c>
+      <c r="H47">
+        <v>15087.7</v>
+      </c>
+      <c r="I47">
+        <v>1145.4670000000001</v>
+      </c>
+      <c r="J47">
+        <v>5830.7049999999999</v>
+      </c>
+      <c r="K47">
+        <v>212.93899999999999</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>4331.0640000000003</v>
+      </c>
+      <c r="O47">
+        <v>11429.645</v>
+      </c>
+      <c r="P47">
+        <v>7796.0450000000001</v>
+      </c>
+      <c r="Q47">
+        <v>83.947999999999993</v>
+      </c>
+      <c r="R47">
+        <v>41090</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>3658.0549999999998</v>
+      </c>
+      <c r="U47">
+        <v>299.89800000000002</v>
+      </c>
+      <c r="V47">
+        <v>-30.363</v>
+      </c>
+      <c r="W47">
+        <v>-36.603499999999997</v>
+      </c>
+      <c r="X47">
+        <v>107.8995</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>-31.837</v>
+      </c>
+      <c r="AA47">
+        <v>-63.295999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>-35.975499999999997</v>
+      </c>
+      <c r="D48">
+        <v>1141.4380000000001</v>
+      </c>
+      <c r="E48">
+        <v>616.298</v>
+      </c>
+      <c r="F48">
+        <v>737.09050000000002</v>
+      </c>
+      <c r="G48">
+        <v>3756.1640000000002</v>
+      </c>
+      <c r="H48">
+        <v>13505.851000000001</v>
+      </c>
+      <c r="I48">
+        <v>361.923</v>
+      </c>
+      <c r="J48">
+        <v>5400.0519999999997</v>
+      </c>
+      <c r="K48">
+        <v>195.69200000000001</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>3441.0320000000002</v>
+      </c>
+      <c r="O48">
+        <v>10206.897000000001</v>
+      </c>
+      <c r="P48">
+        <v>6770.0129999999999</v>
+      </c>
+      <c r="Q48">
+        <v>-54.524500000000003</v>
+      </c>
+      <c r="R48">
+        <v>41182</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>3298.9540000000002</v>
+      </c>
+      <c r="U48">
+        <v>583.15899999999999</v>
+      </c>
+      <c r="V48">
+        <v>371.20800000000003</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>-672.77750000000003</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>-45.796999999999997</v>
+      </c>
+      <c r="AA48">
+        <v>-35.975499999999997</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>-35.975499999999997</v>
+      </c>
+      <c r="D49">
+        <v>1141.4380000000001</v>
+      </c>
+      <c r="E49">
+        <v>616.298</v>
+      </c>
+      <c r="F49">
+        <v>737.09050000000002</v>
+      </c>
+      <c r="G49">
+        <v>3756.1640000000002</v>
+      </c>
+      <c r="H49">
+        <v>13505.851000000001</v>
+      </c>
+      <c r="I49">
+        <v>361.923</v>
+      </c>
+      <c r="J49">
+        <v>5400.0519999999997</v>
+      </c>
+      <c r="K49">
+        <v>195.69200000000001</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>3441.0320000000002</v>
+      </c>
+      <c r="O49">
+        <v>10206.897000000001</v>
+      </c>
+      <c r="P49">
+        <v>6770.0129999999999</v>
+      </c>
+      <c r="Q49">
+        <v>-54.524500000000003</v>
+      </c>
+      <c r="R49">
+        <v>41274</v>
+      </c>
+      <c r="S49">
+        <v>29540</v>
+      </c>
+      <c r="T49">
+        <v>3298.9540000000002</v>
+      </c>
+      <c r="U49">
+        <v>583.15899999999999</v>
+      </c>
+      <c r="V49">
+        <v>371.20800000000003</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>-672.77750000000003</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>-45.796999999999997</v>
+      </c>
+      <c r="AA49">
+        <v>-35.975499999999997</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>164.41399999999999</v>
+      </c>
+      <c r="D50">
+        <v>1382.8785</v>
+      </c>
+      <c r="E50">
+        <v>647.17600000000004</v>
+      </c>
+      <c r="F50">
+        <v>1018.4160000000001</v>
+      </c>
+      <c r="G50">
+        <v>4641.4260000000004</v>
+      </c>
+      <c r="H50">
+        <v>12829.841</v>
+      </c>
+      <c r="I50">
+        <v>1056.3699999999999</v>
+      </c>
+      <c r="J50">
+        <v>3580.2530000000002</v>
+      </c>
+      <c r="K50">
+        <v>201.48099999999999</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>4653.7910000000002</v>
+      </c>
+      <c r="O50">
+        <v>9437.5930000000008</v>
+      </c>
+      <c r="P50">
+        <v>5857.991</v>
+      </c>
+      <c r="Q50">
+        <v>100.96550000000001</v>
+      </c>
+      <c r="R50">
+        <v>41364</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>3392.248</v>
+      </c>
+      <c r="U50">
+        <v>768.79100000000005</v>
+      </c>
+      <c r="V50">
+        <v>-24.151499999999999</v>
+      </c>
+      <c r="W50">
+        <v>-38.079000000000001</v>
+      </c>
+      <c r="X50">
+        <v>-225.66900000000001</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>431.61149999999998</v>
+      </c>
+      <c r="AA50">
+        <v>164.41399999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>164.41399999999999</v>
+      </c>
+      <c r="D51">
+        <v>1382.8785</v>
+      </c>
+      <c r="E51">
+        <v>647.17600000000004</v>
+      </c>
+      <c r="F51">
+        <v>1018.4160000000001</v>
+      </c>
+      <c r="G51">
+        <v>4641.4260000000004</v>
+      </c>
+      <c r="H51">
+        <v>12829.841</v>
+      </c>
+      <c r="I51">
+        <v>1056.3699999999999</v>
+      </c>
+      <c r="J51">
+        <v>3580.2530000000002</v>
+      </c>
+      <c r="K51">
+        <v>201.48099999999999</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>4653.7910000000002</v>
+      </c>
+      <c r="O51">
+        <v>9437.5930000000008</v>
+      </c>
+      <c r="P51">
+        <v>5857.991</v>
+      </c>
+      <c r="Q51">
+        <v>100.96550000000001</v>
+      </c>
+      <c r="R51">
+        <v>41455</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>3392.248</v>
+      </c>
+      <c r="U51">
+        <v>768.79100000000005</v>
+      </c>
+      <c r="V51">
+        <v>-24.151499999999999</v>
+      </c>
+      <c r="W51">
+        <v>-38.079000000000001</v>
+      </c>
+      <c r="X51">
+        <v>-225.66900000000001</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>431.61149999999998</v>
+      </c>
+      <c r="AA51">
+        <v>164.41399999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>116.0625</v>
+      </c>
+      <c r="D52">
+        <v>1238.4475</v>
+      </c>
+      <c r="E52">
+        <v>557.04499999999996</v>
+      </c>
+      <c r="F52">
+        <v>866.39549999999997</v>
+      </c>
+      <c r="G52">
+        <v>5130.4759999999997</v>
+      </c>
+      <c r="H52">
+        <v>12274.545</v>
+      </c>
+      <c r="I52">
+        <v>333.36500000000001</v>
+      </c>
+      <c r="J52">
+        <v>3607.0949999999998</v>
+      </c>
+      <c r="K52">
+        <v>145.90299999999999</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>4164.26</v>
+      </c>
+      <c r="O52">
+        <v>8828.7530000000006</v>
+      </c>
+      <c r="P52">
+        <v>4964.2039999999997</v>
+      </c>
+      <c r="Q52">
+        <v>173.16550000000001</v>
+      </c>
+      <c r="R52">
+        <v>41547</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>3445.7919999999999</v>
+      </c>
+      <c r="U52">
+        <v>1220.8030000000001</v>
+      </c>
+      <c r="V52">
+        <v>359.68099999999998</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>-329.13200000000001</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>259.0505</v>
+      </c>
+      <c r="AA52">
+        <v>116.0625</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>116.0625</v>
+      </c>
+      <c r="D53">
+        <v>1238.4475</v>
+      </c>
+      <c r="E53">
+        <v>557.04499999999996</v>
+      </c>
+      <c r="F53">
+        <v>866.39549999999997</v>
+      </c>
+      <c r="G53">
+        <v>5130.4759999999997</v>
+      </c>
+      <c r="H53">
+        <v>12274.545</v>
+      </c>
+      <c r="I53">
+        <v>333.36500000000001</v>
+      </c>
+      <c r="J53">
+        <v>3607.0949999999998</v>
+      </c>
+      <c r="K53">
+        <v>145.90299999999999</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>4164.26</v>
+      </c>
+      <c r="O53">
+        <v>8828.7530000000006</v>
+      </c>
+      <c r="P53">
+        <v>4964.2039999999997</v>
+      </c>
+      <c r="Q53">
+        <v>173.16550000000001</v>
+      </c>
+      <c r="R53">
+        <v>41639</v>
+      </c>
+      <c r="S53">
+        <v>31815</v>
+      </c>
+      <c r="T53">
+        <v>3445.7919999999999</v>
+      </c>
+      <c r="U53">
+        <v>1220.8030000000001</v>
+      </c>
+      <c r="V53">
+        <v>359.68099999999998</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>-329.13200000000001</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>259.0505</v>
+      </c>
+      <c r="AA53">
+        <v>116.0625</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>-46.378999999999998</v>
+      </c>
+      <c r="D54">
+        <v>957.36249999999995</v>
+      </c>
+      <c r="E54">
+        <v>720.72500000000002</v>
+      </c>
+      <c r="F54">
+        <v>698.18799999999999</v>
+      </c>
+      <c r="G54">
+        <v>5907.2290000000003</v>
+      </c>
+      <c r="H54">
+        <v>13396.08</v>
+      </c>
+      <c r="I54">
+        <v>1089.1880000000001</v>
+      </c>
+      <c r="J54">
+        <v>4117.9840000000004</v>
+      </c>
+      <c r="K54">
+        <v>180.828</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>4802.6469999999999</v>
+      </c>
+      <c r="O54">
+        <v>10020.129000000001</v>
+      </c>
+      <c r="P54">
+        <v>5479.6589999999997</v>
+      </c>
+      <c r="Q54">
+        <v>-79.561499999999995</v>
+      </c>
+      <c r="R54">
+        <v>41729</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>3375.951</v>
+      </c>
+      <c r="U54">
+        <v>977.50800000000004</v>
+      </c>
+      <c r="V54">
+        <v>-32.235500000000002</v>
+      </c>
+      <c r="W54">
+        <v>-21.4315</v>
+      </c>
+      <c r="X54">
+        <v>45.636000000000003</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>-77.632499999999993</v>
+      </c>
+      <c r="AA54">
+        <v>-46.378999999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>-46.378999999999998</v>
+      </c>
+      <c r="D55">
+        <v>957.36249999999995</v>
+      </c>
+      <c r="E55">
+        <v>720.72500000000002</v>
+      </c>
+      <c r="F55">
+        <v>698.18799999999999</v>
+      </c>
+      <c r="G55">
+        <v>5907.2290000000003</v>
+      </c>
+      <c r="H55">
+        <v>13396.08</v>
+      </c>
+      <c r="I55">
+        <v>1089.1880000000001</v>
+      </c>
+      <c r="J55">
+        <v>4117.9840000000004</v>
+      </c>
+      <c r="K55">
+        <v>180.828</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>4802.6469999999999</v>
+      </c>
+      <c r="O55">
+        <v>10020.129000000001</v>
+      </c>
+      <c r="P55">
+        <v>5479.6589999999997</v>
+      </c>
+      <c r="Q55">
+        <v>-79.561499999999995</v>
+      </c>
+      <c r="R55">
+        <v>41820</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>3375.951</v>
+      </c>
+      <c r="U55">
+        <v>977.50800000000004</v>
+      </c>
+      <c r="V55">
+        <v>-32.235500000000002</v>
+      </c>
+      <c r="W55">
+        <v>-21.4315</v>
+      </c>
+      <c r="X55">
+        <v>45.636000000000003</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>-77.632499999999993</v>
+      </c>
+      <c r="AA55">
+        <v>-46.378999999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>1.8915</v>
+      </c>
+      <c r="D56">
+        <v>1101.431</v>
+      </c>
+      <c r="E56">
+        <v>660.19399999999996</v>
+      </c>
+      <c r="F56">
+        <v>795.73050000000001</v>
+      </c>
+      <c r="G56">
+        <v>4296.0990000000002</v>
+      </c>
+      <c r="H56">
+        <v>12310.261</v>
+      </c>
+      <c r="I56">
+        <v>471.30200000000002</v>
+      </c>
+      <c r="J56">
+        <v>4365.433</v>
+      </c>
+      <c r="K56">
+        <v>230.309</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>3341.7849999999999</v>
+      </c>
+      <c r="O56">
+        <v>8787.7630000000008</v>
+      </c>
+      <c r="P56">
+        <v>5660.866</v>
+      </c>
+      <c r="Q56">
+        <v>-91.343999999999994</v>
+      </c>
+      <c r="R56">
+        <v>41912</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>3522.498</v>
+      </c>
+      <c r="U56">
+        <v>890.78800000000001</v>
+      </c>
+      <c r="V56">
+        <v>227.1345</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>-9.6140000000000008</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>-171.91499999999999</v>
+      </c>
+      <c r="AA56">
+        <v>1.8915</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>1.8915</v>
+      </c>
+      <c r="D57">
+        <v>1101.431</v>
+      </c>
+      <c r="E57">
+        <v>660.19399999999996</v>
+      </c>
+      <c r="F57">
+        <v>795.73050000000001</v>
+      </c>
+      <c r="G57">
+        <v>4296.0990000000002</v>
+      </c>
+      <c r="H57">
+        <v>12310.261</v>
+      </c>
+      <c r="I57">
+        <v>471.30200000000002</v>
+      </c>
+      <c r="J57">
+        <v>4365.433</v>
+      </c>
+      <c r="K57">
+        <v>230.309</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>3341.7849999999999</v>
+      </c>
+      <c r="O57">
+        <v>8787.7630000000008</v>
+      </c>
+      <c r="P57">
+        <v>5660.866</v>
+      </c>
+      <c r="Q57">
+        <v>-91.343999999999994</v>
+      </c>
+      <c r="R57">
+        <v>42004</v>
+      </c>
+      <c r="S57">
+        <v>29647</v>
+      </c>
+      <c r="T57">
+        <v>3522.498</v>
+      </c>
+      <c r="U57">
+        <v>890.78800000000001</v>
+      </c>
+      <c r="V57">
+        <v>227.1345</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>-9.6140000000000008</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>-171.91499999999999</v>
+      </c>
+      <c r="AA57">
+        <v>1.8915</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>635.99850000000004</v>
+      </c>
+      <c r="D58">
+        <v>1624.4845</v>
+      </c>
+      <c r="E58">
+        <v>205.90100000000001</v>
+      </c>
+      <c r="F58">
+        <v>1369.6675</v>
+      </c>
+      <c r="G58">
+        <v>2426.0239999999999</v>
+      </c>
+      <c r="H58">
+        <v>7601.6890000000003</v>
+      </c>
+      <c r="I58">
+        <v>151.93799999999999</v>
+      </c>
+      <c r="J58">
+        <v>1516.4369999999999</v>
+      </c>
+      <c r="K58">
+        <v>8.8960000000000008</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>572.29100000000005</v>
+      </c>
+      <c r="O58">
+        <v>2681.855</v>
+      </c>
+      <c r="P58">
+        <v>1566.7650000000001</v>
+      </c>
+      <c r="Q58">
+        <v>385.36</v>
+      </c>
+      <c r="R58">
+        <v>42094</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>4919.8339999999998</v>
+      </c>
+      <c r="U58">
+        <v>1635.7280000000001</v>
+      </c>
+      <c r="V58">
+        <v>-159.9135</v>
+      </c>
+      <c r="W58">
+        <v>-39.628500000000003</v>
+      </c>
+      <c r="X58">
+        <v>-57.93</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>752.33050000000003</v>
+      </c>
+      <c r="AA58">
+        <v>635.99850000000004</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>635.99850000000004</v>
+      </c>
+      <c r="D59">
+        <v>1624.4845</v>
+      </c>
+      <c r="E59">
+        <v>205.90100000000001</v>
+      </c>
+      <c r="F59">
+        <v>1369.6675</v>
+      </c>
+      <c r="G59">
+        <v>2426.0239999999999</v>
+      </c>
+      <c r="H59">
+        <v>7601.6890000000003</v>
+      </c>
+      <c r="I59">
+        <v>151.93799999999999</v>
+      </c>
+      <c r="J59">
+        <v>1516.4369999999999</v>
+      </c>
+      <c r="K59">
+        <v>8.8960000000000008</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>572.29100000000005</v>
+      </c>
+      <c r="O59">
+        <v>2681.855</v>
+      </c>
+      <c r="P59">
+        <v>1566.7650000000001</v>
+      </c>
+      <c r="Q59">
+        <v>385.36</v>
+      </c>
+      <c r="R59">
+        <v>42185</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>4919.8339999999998</v>
+      </c>
+      <c r="U59">
+        <v>1635.7280000000001</v>
+      </c>
+      <c r="V59">
+        <v>-159.9135</v>
+      </c>
+      <c r="W59">
+        <v>-39.628500000000003</v>
+      </c>
+      <c r="X59">
+        <v>-57.93</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>752.33050000000003</v>
+      </c>
+      <c r="AA59">
+        <v>635.99850000000004</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>151.25899999999999</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>1782.981</v>
+      </c>
+      <c r="H60">
+        <v>7375.0569999999998</v>
+      </c>
+      <c r="I60">
+        <v>114.39</v>
+      </c>
+      <c r="J60">
+        <v>1565.43</v>
+      </c>
+      <c r="K60">
+        <v>1.2</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>483.74099999999999</v>
+      </c>
+      <c r="O60">
+        <v>2627.6689999999999</v>
+      </c>
+      <c r="P60">
+        <v>1603.35</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <v>42277</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>4747.3879999999999</v>
+      </c>
+      <c r="U60">
+        <v>1194.414</v>
+      </c>
+      <c r="V60">
+        <v>0</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>0</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>151.25899999999999</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>1782.981</v>
+      </c>
+      <c r="H61">
+        <v>7375.0569999999998</v>
+      </c>
+      <c r="I61">
+        <v>114.39</v>
+      </c>
+      <c r="J61">
+        <v>1565.43</v>
+      </c>
+      <c r="K61">
+        <v>1.2</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>483.74099999999999</v>
+      </c>
+      <c r="O61">
+        <v>2627.6689999999999</v>
+      </c>
+      <c r="P61">
+        <v>1603.35</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="R61">
+        <v>42369</v>
+      </c>
+      <c r="S61">
+        <v>9552</v>
+      </c>
+      <c r="T61">
+        <v>4747.3879999999999</v>
+      </c>
+      <c r="U61">
+        <v>1194.414</v>
+      </c>
+      <c r="V61">
+        <v>0</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>0</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>36.75</v>
+      </c>
+      <c r="D62">
+        <v>425.10899999999998</v>
+      </c>
+      <c r="E62">
+        <v>526.91800000000001</v>
+      </c>
+      <c r="F62">
+        <v>282.334</v>
+      </c>
+      <c r="G62">
+        <v>2030.5930000000001</v>
+      </c>
+      <c r="H62">
+        <v>8976.8140000000003</v>
+      </c>
+      <c r="I62">
+        <v>334.76299999999998</v>
+      </c>
+      <c r="J62">
+        <v>2572.27</v>
+      </c>
+      <c r="K62">
+        <v>15.295999999999999</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>978.11800000000005</v>
+      </c>
+      <c r="O62">
+        <v>4218.7740000000003</v>
+      </c>
+      <c r="P62">
+        <v>2804.8960000000002</v>
+      </c>
+      <c r="Q62">
+        <v>-159.88300000000001</v>
+      </c>
+      <c r="R62">
+        <v>42460</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>4758.04</v>
+      </c>
+      <c r="U62">
+        <v>888.74400000000003</v>
+      </c>
+      <c r="V62">
+        <v>20.671500000000002</v>
+      </c>
+      <c r="W62">
+        <v>-39.826250000000002</v>
+      </c>
+      <c r="X62">
+        <v>137.5675</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>-116.54300000000001</v>
+      </c>
+      <c r="AA62">
+        <v>36.75</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>36.75</v>
+      </c>
+      <c r="D63">
+        <v>425.10899999999998</v>
+      </c>
+      <c r="E63">
+        <v>526.91800000000001</v>
+      </c>
+      <c r="F63">
+        <v>282.334</v>
+      </c>
+      <c r="G63">
+        <v>2030.5930000000001</v>
+      </c>
+      <c r="H63">
+        <v>8976.8140000000003</v>
+      </c>
+      <c r="I63">
+        <v>334.76299999999998</v>
+      </c>
+      <c r="J63">
+        <v>2572.27</v>
+      </c>
+      <c r="K63">
+        <v>15.295999999999999</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>978.11800000000005</v>
+      </c>
+      <c r="O63">
+        <v>4218.7740000000003</v>
+      </c>
+      <c r="P63">
+        <v>2804.8960000000002</v>
+      </c>
+      <c r="Q63">
+        <v>-159.88300000000001</v>
+      </c>
+      <c r="R63">
+        <v>42551</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>4758.04</v>
+      </c>
+      <c r="U63">
+        <v>888.74400000000003</v>
+      </c>
+      <c r="V63">
+        <v>20.671500000000002</v>
+      </c>
+      <c r="W63">
+        <v>-39.826250000000002</v>
+      </c>
+      <c r="X63">
+        <v>137.5675</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>-116.54300000000001</v>
+      </c>
+      <c r="AA63">
+        <v>36.75</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>223.12350000000001</v>
+      </c>
+      <c r="D64">
+        <v>1079.3025</v>
+      </c>
+      <c r="E64">
+        <v>406.07100000000003</v>
+      </c>
+      <c r="F64">
+        <v>782.44100000000003</v>
+      </c>
+      <c r="G64">
+        <v>2517.9870000000001</v>
+      </c>
+      <c r="H64">
+        <v>10380.288</v>
+      </c>
+      <c r="I64">
+        <v>431.476</v>
+      </c>
+      <c r="J64">
+        <v>2813.2959999999998</v>
+      </c>
+      <c r="K64">
+        <v>5.1609999999999996</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>1443.729</v>
+      </c>
+      <c r="O64">
+        <v>5144.6009999999997</v>
+      </c>
+      <c r="P64">
+        <v>3114.777</v>
+      </c>
+      <c r="Q64">
+        <v>318.37900000000002</v>
+      </c>
+      <c r="R64">
+        <v>42643</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>5235.6869999999999</v>
+      </c>
+      <c r="U64">
+        <v>1515.367</v>
+      </c>
+      <c r="V64">
+        <v>48.168500000000002</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>31.265000000000001</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>234.1345</v>
+      </c>
+      <c r="AA64">
+        <v>223.12350000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>223.12350000000001</v>
+      </c>
+      <c r="D65">
+        <v>1079.3025</v>
+      </c>
+      <c r="E65">
+        <v>406.07100000000003</v>
+      </c>
+      <c r="F65">
+        <v>782.44100000000003</v>
+      </c>
+      <c r="G65">
+        <v>2517.9870000000001</v>
+      </c>
+      <c r="H65">
+        <v>10380.288</v>
+      </c>
+      <c r="I65">
+        <v>431.476</v>
+      </c>
+      <c r="J65">
+        <v>2813.2959999999998</v>
+      </c>
+      <c r="K65">
+        <v>5.1609999999999996</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>1443.729</v>
+      </c>
+      <c r="O65">
+        <v>5144.6009999999997</v>
+      </c>
+      <c r="P65">
+        <v>3114.777</v>
+      </c>
+      <c r="Q65">
+        <v>318.37900000000002</v>
+      </c>
+      <c r="R65">
+        <v>42735</v>
+      </c>
+      <c r="S65">
+        <v>10718</v>
+      </c>
+      <c r="T65">
+        <v>5235.6869999999999</v>
+      </c>
+      <c r="U65">
+        <v>1515.367</v>
+      </c>
+      <c r="V65">
+        <v>48.168500000000002</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>31.265000000000001</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>234.1345</v>
+      </c>
+      <c r="AA65">
+        <v>223.12350000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>85.939499999999995</v>
+      </c>
+      <c r="D66">
+        <v>938.60850000000005</v>
+      </c>
+      <c r="E66">
+        <v>749.81899999999996</v>
+      </c>
+      <c r="F66">
+        <v>612.80600000000004</v>
+      </c>
+      <c r="G66">
+        <v>2949.482</v>
+      </c>
+      <c r="H66">
+        <v>10261.865</v>
+      </c>
+      <c r="I66">
+        <v>598.19600000000003</v>
+      </c>
+      <c r="J66">
+        <v>2352.3069999999998</v>
+      </c>
+      <c r="K66">
+        <v>10.069000000000001</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>1858.646</v>
+      </c>
+      <c r="O66">
+        <v>5026.7280000000001</v>
+      </c>
+      <c r="P66">
+        <v>2588.2800000000002</v>
+      </c>
+      <c r="Q66">
+        <v>-384.47699999999998</v>
+      </c>
+      <c r="R66">
+        <v>42825</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>5235.1369999999997</v>
+      </c>
+      <c r="U66">
+        <v>747.12599999999998</v>
+      </c>
+      <c r="V66">
+        <v>30.955500000000001</v>
+      </c>
+      <c r="W66">
+        <v>-39.353499999999997</v>
+      </c>
+      <c r="X66">
+        <v>-36.701500000000003</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>-325.90800000000002</v>
+      </c>
+      <c r="AA66">
+        <v>85.939499999999995</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>85.939499999999995</v>
+      </c>
+      <c r="D67">
+        <v>938.60850000000005</v>
+      </c>
+      <c r="E67">
+        <v>749.81899999999996</v>
+      </c>
+      <c r="F67">
+        <v>612.80600000000004</v>
+      </c>
+      <c r="G67">
+        <v>2949.482</v>
+      </c>
+      <c r="H67">
+        <v>10261.865</v>
+      </c>
+      <c r="I67">
+        <v>598.19600000000003</v>
+      </c>
+      <c r="J67">
+        <v>2352.3069999999998</v>
+      </c>
+      <c r="K67">
+        <v>10.069000000000001</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>1858.646</v>
+      </c>
+      <c r="O67">
+        <v>5026.7280000000001</v>
+      </c>
+      <c r="P67">
+        <v>2588.2800000000002</v>
+      </c>
+      <c r="Q67">
+        <v>-384.47699999999998</v>
+      </c>
+      <c r="R67">
+        <v>42916</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>5235.1369999999997</v>
+      </c>
+      <c r="U67">
+        <v>747.12599999999998</v>
+      </c>
+      <c r="V67">
+        <v>30.955500000000001</v>
+      </c>
+      <c r="W67">
+        <v>-39.353499999999997</v>
+      </c>
+      <c r="X67">
+        <v>-36.701500000000003</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>-325.90800000000002</v>
+      </c>
+      <c r="AA67">
+        <v>85.939499999999995</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>153.67150000000001</v>
+      </c>
+      <c r="D68">
+        <v>1069.6495</v>
+      </c>
+      <c r="E68">
+        <v>675.91499999999996</v>
+      </c>
+      <c r="F68">
+        <v>643.11850000000004</v>
+      </c>
+      <c r="G68">
+        <v>2368.8270000000002</v>
+      </c>
+      <c r="H68">
+        <v>11566.612999999999</v>
+      </c>
+      <c r="I68">
+        <v>596.90899999999999</v>
+      </c>
+      <c r="J68">
+        <v>3164.6509999999998</v>
+      </c>
+      <c r="K68">
+        <v>10.36</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>1741.1130000000001</v>
+      </c>
+      <c r="O68">
+        <v>5569.8379999999997</v>
+      </c>
+      <c r="P68">
+        <v>3305.0830000000001</v>
+      </c>
+      <c r="Q68">
+        <v>71.503500000000003</v>
+      </c>
+      <c r="R68">
+        <v>43008</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>5996.7749999999996</v>
+      </c>
+      <c r="U68">
+        <v>889.19399999999996</v>
+      </c>
+      <c r="V68">
+        <v>67.261499999999998</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>166.99250000000001</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>-190.364</v>
+      </c>
+      <c r="AA68">
+        <v>153.67150000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>153.67150000000001</v>
+      </c>
+      <c r="D69">
+        <v>1069.6495</v>
+      </c>
+      <c r="E69">
+        <v>675.91499999999996</v>
+      </c>
+      <c r="F69">
+        <v>643.11850000000004</v>
+      </c>
+      <c r="G69">
+        <v>2368.8270000000002</v>
+      </c>
+      <c r="H69">
+        <v>11566.612999999999</v>
+      </c>
+      <c r="I69">
+        <v>596.90899999999999</v>
+      </c>
+      <c r="J69">
+        <v>3164.6509999999998</v>
+      </c>
+      <c r="K69">
+        <v>10.36</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>1741.1130000000001</v>
+      </c>
+      <c r="O69">
+        <v>5569.8379999999997</v>
+      </c>
+      <c r="P69">
+        <v>3305.0830000000001</v>
+      </c>
+      <c r="Q69">
+        <v>71.503500000000003</v>
+      </c>
+      <c r="R69">
+        <v>43100</v>
+      </c>
+      <c r="S69">
+        <v>14439</v>
+      </c>
+      <c r="T69">
+        <v>5996.7749999999996</v>
+      </c>
+      <c r="U69">
+        <v>889.19399999999996</v>
+      </c>
+      <c r="V69">
+        <v>67.261499999999998</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <v>166.99250000000001</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>-190.364</v>
+      </c>
+      <c r="AA69">
+        <v>153.67150000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>94.836500000000001</v>
+      </c>
+      <c r="D70">
+        <v>1265.7929999999999</v>
+      </c>
+      <c r="E70">
+        <v>866.83500000000004</v>
+      </c>
+      <c r="F70">
+        <v>723.84400000000005</v>
+      </c>
+      <c r="G70">
+        <v>3126.6779999999999</v>
+      </c>
+      <c r="H70">
+        <v>12284.686</v>
+      </c>
+      <c r="I70">
+        <v>834.47299999999996</v>
+      </c>
+      <c r="J70">
+        <v>3134.2139999999999</v>
+      </c>
+      <c r="K70">
+        <v>23.157</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>2168.605</v>
+      </c>
+      <c r="O70">
+        <v>5923.8010000000004</v>
+      </c>
+      <c r="P70">
+        <v>3359.0940000000001</v>
+      </c>
+      <c r="Q70">
+        <v>-59.113</v>
+      </c>
+      <c r="R70">
+        <v>43190</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>6360.8850000000002</v>
+      </c>
+      <c r="U70">
+        <v>785.57299999999998</v>
+      </c>
+      <c r="V70">
+        <v>-4.8120000000000003</v>
+      </c>
+      <c r="W70">
+        <v>-44.896999999999998</v>
+      </c>
+      <c r="X70">
+        <v>34.211500000000001</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>-33.982999999999997</v>
+      </c>
+      <c r="AA70">
+        <v>94.836500000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>94.836500000000001</v>
+      </c>
+      <c r="D71">
+        <v>1265.7929999999999</v>
+      </c>
+      <c r="E71">
+        <v>866.83500000000004</v>
+      </c>
+      <c r="F71">
+        <v>723.84400000000005</v>
+      </c>
+      <c r="G71">
+        <v>3126.6779999999999</v>
+      </c>
+      <c r="H71">
+        <v>12284.686</v>
+      </c>
+      <c r="I71">
+        <v>834.47299999999996</v>
+      </c>
+      <c r="J71">
+        <v>3134.2139999999999</v>
+      </c>
+      <c r="K71">
+        <v>23.157</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>2168.605</v>
+      </c>
+      <c r="O71">
+        <v>5923.8010000000004</v>
+      </c>
+      <c r="P71">
+        <v>3359.0940000000001</v>
+      </c>
+      <c r="Q71">
+        <v>-59.113</v>
+      </c>
+      <c r="R71">
+        <v>43281</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>6360.8850000000002</v>
+      </c>
+      <c r="U71">
+        <v>785.57299999999998</v>
+      </c>
+      <c r="V71">
+        <v>-4.8120000000000003</v>
+      </c>
+      <c r="W71">
+        <v>-44.896999999999998</v>
+      </c>
+      <c r="X71">
+        <v>34.211500000000001</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>-33.982999999999997</v>
+      </c>
+      <c r="AA71">
+        <v>94.836500000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>27.867000000000001</v>
+      </c>
+      <c r="D72">
+        <v>1193.9860000000001</v>
+      </c>
+      <c r="E72">
+        <v>610.29399999999998</v>
+      </c>
+      <c r="F72">
+        <v>720.57950000000005</v>
+      </c>
+      <c r="G72">
+        <v>2575.9270000000001</v>
+      </c>
+      <c r="H72">
+        <v>12118.047</v>
+      </c>
+      <c r="I72">
+        <v>574.71299999999997</v>
+      </c>
+      <c r="J72">
+        <v>3125.364</v>
+      </c>
+      <c r="K72">
+        <v>15.603</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>1913.952</v>
+      </c>
+      <c r="O72">
+        <v>5843.9679999999998</v>
+      </c>
+      <c r="P72">
+        <v>3407.58</v>
+      </c>
+      <c r="Q72">
+        <v>87.251999999999995</v>
+      </c>
+      <c r="R72">
+        <v>43373</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>6274.0789999999997</v>
+      </c>
+      <c r="U72">
+        <v>950.71500000000003</v>
+      </c>
+      <c r="V72">
+        <v>125.9145</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>-30.414999999999999</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>-117.0005</v>
+      </c>
+      <c r="AA72">
+        <v>27.867000000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>27.867000000000001</v>
+      </c>
+      <c r="D73">
+        <v>1193.9860000000001</v>
+      </c>
+      <c r="E73">
+        <v>610.29399999999998</v>
+      </c>
+      <c r="F73">
+        <v>720.57950000000005</v>
+      </c>
+      <c r="G73">
+        <v>2575.9270000000001</v>
+      </c>
+      <c r="H73">
+        <v>12118.047</v>
+      </c>
+      <c r="I73">
+        <v>574.71299999999997</v>
+      </c>
+      <c r="J73">
+        <v>3125.364</v>
+      </c>
+      <c r="K73">
+        <v>15.603</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>1913.952</v>
+      </c>
+      <c r="O73">
+        <v>5843.9679999999998</v>
+      </c>
+      <c r="P73">
+        <v>3407.58</v>
+      </c>
+      <c r="Q73">
+        <v>87.251999999999995</v>
+      </c>
+      <c r="R73">
+        <v>43465</v>
+      </c>
+      <c r="S73">
+        <v>20294</v>
+      </c>
+      <c r="T73">
+        <v>6274.0789999999997</v>
+      </c>
+      <c r="U73">
+        <v>950.71500000000003</v>
+      </c>
+      <c r="V73">
+        <v>125.9145</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <v>-30.414999999999999</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>-117.0005</v>
+      </c>
+      <c r="AA73">
+        <v>27.867000000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>88.073999999999998</v>
+      </c>
+      <c r="D74">
+        <v>1353.5875000000001</v>
+      </c>
+      <c r="E74">
+        <v>871.56399999999996</v>
+      </c>
+      <c r="F74">
+        <v>817.16200000000003</v>
+      </c>
+      <c r="G74">
+        <v>2963.2</v>
+      </c>
+      <c r="H74">
+        <v>13508.808999999999</v>
+      </c>
+      <c r="I74">
+        <v>902.41899999999998</v>
+      </c>
+      <c r="J74">
+        <v>3238.49</v>
+      </c>
+      <c r="K74">
+        <v>22.922999999999998</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>2138.9810000000002</v>
+      </c>
+      <c r="O74">
+        <v>6820.4430000000002</v>
+      </c>
+      <c r="P74">
+        <v>4271.9639999999999</v>
+      </c>
+      <c r="Q74">
+        <v>116.87949999999999</v>
+      </c>
+      <c r="R74">
+        <v>43555</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>6688.366</v>
+      </c>
+      <c r="U74">
+        <v>1191.7940000000001</v>
+      </c>
+      <c r="V74">
+        <v>43.185000000000002</v>
+      </c>
+      <c r="W74">
+        <v>-45.775500000000001</v>
+      </c>
+      <c r="X74">
+        <v>49.668999999999997</v>
+      </c>
+      <c r="Y74">
+        <v>588.75</v>
+      </c>
+      <c r="Z74">
+        <v>96.089500000000001</v>
+      </c>
+      <c r="AA74">
+        <v>88.073999999999998</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>88.073999999999998</v>
+      </c>
+      <c r="D75">
+        <v>1353.5875000000001</v>
+      </c>
+      <c r="E75">
+        <v>871.56399999999996</v>
+      </c>
+      <c r="F75">
+        <v>817.16200000000003</v>
+      </c>
+      <c r="G75">
+        <v>2963.2</v>
+      </c>
+      <c r="H75">
+        <v>13508.808999999999</v>
+      </c>
+      <c r="I75">
+        <v>902.41899999999998</v>
+      </c>
+      <c r="J75">
+        <v>3238.49</v>
+      </c>
+      <c r="K75">
+        <v>22.922999999999998</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>2138.9810000000002</v>
+      </c>
+      <c r="O75">
+        <v>6820.4430000000002</v>
+      </c>
+      <c r="P75">
+        <v>4271.9639999999999</v>
+      </c>
+      <c r="Q75">
+        <v>116.87949999999999</v>
+      </c>
+      <c r="R75">
+        <v>43646</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>6688.366</v>
+      </c>
+      <c r="U75">
+        <v>1191.7940000000001</v>
+      </c>
+      <c r="V75">
+        <v>43.185000000000002</v>
+      </c>
+      <c r="W75">
+        <v>-45.775500000000001</v>
+      </c>
+      <c r="X75">
+        <v>49.668999999999997</v>
+      </c>
+      <c r="Y75">
+        <v>588.75</v>
+      </c>
+      <c r="Z75">
+        <v>96.089500000000001</v>
+      </c>
+      <c r="AA75">
+        <v>88.073999999999998</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>-26.6</v>
+      </c>
+      <c r="D76">
+        <v>1200.366</v>
+      </c>
+      <c r="E76">
+        <v>649.97500000000002</v>
+      </c>
+      <c r="F76">
+        <v>740.85649999999998</v>
+      </c>
+      <c r="G76">
+        <v>2870.317</v>
+      </c>
+      <c r="H76">
+        <v>13890.282999999999</v>
+      </c>
+      <c r="I76">
+        <v>601.471</v>
+      </c>
+      <c r="J76">
+        <v>3375.6779999999999</v>
+      </c>
+      <c r="K76">
+        <v>15.064</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>2587.3679999999999</v>
+      </c>
+      <c r="O76">
+        <v>7259.1769999999997</v>
+      </c>
+      <c r="P76">
+        <v>4239.2640000000001</v>
+      </c>
+      <c r="Q76">
+        <v>-46.2425</v>
+      </c>
+      <c r="R76">
+        <v>43738</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>6631.1059999999998</v>
+      </c>
+      <c r="U76">
+        <v>1091.45</v>
+      </c>
+      <c r="V76">
+        <v>196.59950000000001</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <v>182.292</v>
+      </c>
+      <c r="Y76">
+        <v>428.62799999999999</v>
+      </c>
+      <c r="Z76">
+        <v>-136.917</v>
+      </c>
+      <c r="AA76">
+        <v>-26.6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>-26.6</v>
+      </c>
+      <c r="D77">
+        <v>1200.366</v>
+      </c>
+      <c r="E77">
+        <v>649.97500000000002</v>
+      </c>
+      <c r="F77">
+        <v>740.85649999999998</v>
+      </c>
+      <c r="G77">
+        <v>2870.317</v>
+      </c>
+      <c r="H77">
+        <v>13890.282999999999</v>
+      </c>
+      <c r="I77">
+        <v>601.471</v>
+      </c>
+      <c r="J77">
+        <v>3375.6779999999999</v>
+      </c>
+      <c r="K77">
+        <v>15.064</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>2587.3679999999999</v>
+      </c>
+      <c r="O77">
+        <v>7259.1769999999997</v>
+      </c>
+      <c r="P77">
+        <v>4239.2640000000001</v>
+      </c>
+      <c r="Q77">
+        <v>-46.2425</v>
+      </c>
+      <c r="R77">
+        <v>43830</v>
+      </c>
+      <c r="S77">
+        <v>22361</v>
+      </c>
+      <c r="T77">
+        <v>6631.1059999999998</v>
+      </c>
+      <c r="U77">
+        <v>1091.45</v>
+      </c>
+      <c r="V77">
+        <v>196.59950000000001</v>
+      </c>
+      <c r="W77">
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <v>182.292</v>
+      </c>
+      <c r="Y77">
+        <v>428.62799999999999</v>
+      </c>
+      <c r="Z77">
+        <v>-136.917</v>
+      </c>
+      <c r="AA77">
+        <v>-26.6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
         <v>-194.904</v>
       </c>
-      <c r="D42">
+      <c r="D78">
         <v>944.56550000000004</v>
       </c>
-      <c r="E42">
+      <c r="E78">
         <v>821.38300000000004</v>
       </c>
-      <c r="F42">
+      <c r="F78">
         <v>585.97450000000003</v>
       </c>
-      <c r="G42">
+      <c r="G78">
         <v>3135.0120000000002</v>
       </c>
-      <c r="H42">
+      <c r="H78">
         <v>13950.569</v>
       </c>
-      <c r="I42">
+      <c r="I78">
         <v>1373.6289999999999</v>
       </c>
-      <c r="J42">
+      <c r="J78">
         <v>4034.8530000000001</v>
       </c>
-      <c r="K42">
+      <c r="K78">
         <v>129.28200000000001</v>
       </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
         <v>2704.953</v>
       </c>
-      <c r="O42">
+      <c r="O78">
         <v>8034.9179999999997</v>
       </c>
-      <c r="P42">
+      <c r="P78">
         <v>5082.3270000000002</v>
       </c>
-      <c r="Q42">
+      <c r="Q78">
         <v>184.05799999999999</v>
       </c>
-      <c r="R42">
+      <c r="R78">
+        <v>43921</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <v>5915.6509999999998</v>
+      </c>
+      <c r="U78">
+        <v>1573.7850000000001</v>
+      </c>
+      <c r="V78">
+        <v>68.921499999999995</v>
+      </c>
+      <c r="W78">
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <v>282.17349999999999</v>
+      </c>
+      <c r="Y78">
+        <v>426.786</v>
+      </c>
+      <c r="Z78">
+        <v>-158.48349999999999</v>
+      </c>
+      <c r="AA78">
+        <v>-194.904</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
         <v>44012</v>
       </c>
-      <c r="S42">
-        <v>0</v>
-      </c>
-      <c r="T42">
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>-194.904</v>
+      </c>
+      <c r="D79">
+        <v>944.56550000000004</v>
+      </c>
+      <c r="E79">
+        <v>821.38300000000004</v>
+      </c>
+      <c r="F79">
+        <v>585.97450000000003</v>
+      </c>
+      <c r="G79">
+        <v>3135.0120000000002</v>
+      </c>
+      <c r="H79">
+        <v>13950.569</v>
+      </c>
+      <c r="I79">
+        <v>1373.6289999999999</v>
+      </c>
+      <c r="J79">
+        <v>4034.8530000000001</v>
+      </c>
+      <c r="K79">
+        <v>129.28200000000001</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>2704.953</v>
+      </c>
+      <c r="O79">
+        <v>8034.9179999999997</v>
+      </c>
+      <c r="P79">
+        <v>5082.3270000000002</v>
+      </c>
+      <c r="Q79">
+        <v>184.05799999999999</v>
+      </c>
+      <c r="R79">
+        <v>44012</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
         <v>5915.6509999999998</v>
       </c>
-      <c r="U42">
+      <c r="U79">
         <v>1573.7850000000001</v>
       </c>
-      <c r="V42">
+      <c r="V79">
         <v>68.921499999999995</v>
       </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42">
+      <c r="W79">
+        <v>0</v>
+      </c>
+      <c r="X79">
         <v>282.17349999999999</v>
       </c>
-      <c r="Y42">
+      <c r="Y79">
         <v>426.786</v>
       </c>
-      <c r="Z42">
+      <c r="Z79">
         <v>-158.48349999999999</v>
       </c>
-      <c r="AA42">
+      <c r="AA79">
         <v>-194.904</v>
       </c>
     </row>
